--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -134,7 +134,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:31 AM</t>
+    <t>Sunday, 13 July, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>95.00</t>
   </si>
   <si>
@@ -134,7 +146,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:32 AM</t>
+    <t>Sunday, 13 July, 2025 9:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -792,7 +804,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -801,14 +813,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -825,7 +837,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -834,14 +846,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -858,7 +870,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -867,31 +879,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -900,20 +912,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -924,7 +936,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -940,24 +952,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -966,31 +978,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -999,66 +1011,99 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>527</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>42</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>43</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>25</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>32</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>588</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>46</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>47</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1107,10 +1152,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -146,7 +155,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:41 AM</t>
+    <t>Sunday, 13 July, 2025 9:47 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,24 +928,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,28 +954,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>28</v>
@@ -978,20 +987,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1024,7 +1033,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1035,7 +1044,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1057,53 +1066,86 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>25</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>34</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>35</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>588</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>45</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
-        <v>46</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
-        <v>47</v>
-      </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>611</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>49</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>50</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1157,10 +1199,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:47 AM</t>
+    <t>Sunday, 13 July, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -140,7 +140,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -149,13 +152,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 10:20 AM</t>
+    <t>Sunday, 13 July, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1044,7 +1044,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1070,11 +1070,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="P17" s="13">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="Q17" s="13"/>
     </row>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 10:44 AM</t>
+    <t>Sunday, 13 July, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:00 AM</t>
+    <t>Sunday, 13 July, 2025 11:01 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -114,12 +123,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -928,7 +931,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -945,7 +948,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -961,24 +964,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -987,28 +990,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>28</v>
@@ -1020,31 +1023,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1053,7 +1056,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1066,18 +1069,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1086,7 +1089,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1099,53 +1102,86 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>25</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>37</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>30</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>615</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>630</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
         <v>49</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
         <v>50</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>51</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1204,10 +1240,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:01 AM</t>
+    <t>Sunday, 13 July, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:03 AM</t>
+    <t>Sunday, 13 July, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:04 AM</t>
+    <t>Sunday, 13 July, 2025 11:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:05 AM</t>
+    <t>Sunday, 13 July, 2025 11:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -158,7 +158,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:18 AM</t>
+    <t>Sunday, 13 July, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -116,6 +116,27 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -158,7 +179,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:22 AM</t>
+    <t>Sunday, 13 July, 2025 11:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,21 +1018,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>28</v>
@@ -1036,7 +1057,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1063,24 +1084,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1089,20 +1110,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1110,10 +1131,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1122,7 +1143,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1135,53 +1156,119 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>25</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>44</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>55</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>25</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>44</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>30</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c t="s" r="Q19" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>630</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>49</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>50</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>51</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>694</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>56</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>57</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>58</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1245,10 +1332,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -179,7 +179,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:39 AM</t>
+    <t>Sunday, 13 July, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -83,6 +83,15 @@
     <t>134.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
   </si>
   <si>
@@ -95,9 +104,6 @@
     <t>145.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>LYSE 0.65% NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -146,6 +152,12 @@
     <t>0</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -179,7 +191,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:44 AM</t>
+    <t>Sunday, 13 July, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -929,14 +941,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -945,7 +957,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -962,14 +974,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -978,7 +990,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -995,14 +1007,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,14 +1023,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1028,14 +1040,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,14 +1056,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1061,14 +1073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1077,31 +1089,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1110,31 +1122,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,31 +1155,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1176,31 +1188,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1209,66 +1221,132 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>694</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>56</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>57</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>46</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>58</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>28</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>46</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>32</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>831</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>60</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>61</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>62</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1342,10 +1420,20 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:46 AM</t>
+    <t>Sunday, 13 July, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 11:55 AM</t>
+    <t>Sunday, 13 July, 2025 12:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:09 PM</t>
+    <t>Sunday, 13 July, 2025 12:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -44,15 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
@@ -74,6 +83,33 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -86,18 +122,12 @@
     <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>122.0000</t>
   </si>
   <si>
     <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>145.00</t>
   </si>
   <si>
@@ -131,12 +161,21 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -149,9 +188,6 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -191,7 +227,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:12 PM</t>
+    <t>Sunday, 13 July, 2025 12:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -865,7 +901,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -875,14 +911,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,14 +927,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,14 +944,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -931,7 +967,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +977,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -970,18 +1006,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1026,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1007,14 +1043,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1023,14 +1059,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1040,14 +1076,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1056,7 +1092,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1073,14 +1109,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,14 +1125,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1113,7 +1149,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1129,24 +1165,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1162,24 +1198,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,31 +1224,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1221,31 +1257,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1261,24 +1297,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1294,59 +1330,191 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>831</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>60</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>61</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>62</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>29</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>63</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>28</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>29</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>66</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>28</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>29</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>70</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>71</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>28</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>29</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>42</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1159</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>72</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>73</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>74</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1430,10 +1598,30 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -227,7 +227,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:22 PM</t>
+    <t>Sunday, 13 July, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>19:0</t>
   </si>
   <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جنتيانا </t>
   </si>
   <si>
@@ -227,7 +236,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:23 PM</t>
+    <t>Sunday, 13 July, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1330,7 +1339,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1340,11 +1349,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1373,11 +1382,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1389,14 +1398,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1413,7 +1422,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1422,7 +1431,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1455,7 +1464,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1472,49 +1481,82 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>74</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>28</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>29</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>42</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c t="s" r="Q26" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1159</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>72</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>73</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>74</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1194</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>75</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>76</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>77</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1618,10 +1660,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -236,7 +236,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:29 PM</t>
+    <t>Sunday, 13 July, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -233,10 +233,22 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>قصافات اطفال</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:30 PM</t>
+    <t>Sunday, 13 July, 2025 12:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,7 +1516,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1525,38 +1537,104 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1194</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>75</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>51</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>29</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>76</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>77</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>78</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>28</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>29</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>42</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1219</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>79</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>80</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>81</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1665,10 +1743,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -248,7 +248,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:32 PM</t>
+    <t>Sunday, 13 July, 2025 12:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -248,7 +248,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 12:42 PM</t>
+    <t>Sunday, 13 July, 2025 1:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -248,7 +248,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 1:15 PM</t>
+    <t>Sunday, 13 July, 2025 1:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -248,7 +248,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 1:16 PM</t>
+    <t>Sunday, 13 July, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -248,7 +257,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 1:22 PM</t>
+    <t>Sunday, 13 July, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1203,7 +1212,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1236,7 +1245,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,11 +1271,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>32</v>
@@ -1278,14 +1287,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1318,21 +1327,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>32</v>
@@ -1344,14 +1353,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,11 +1370,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1384,7 +1393,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,11 +1403,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1410,14 +1419,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1427,11 +1436,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>32</v>
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1467,7 +1476,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1476,7 +1485,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1493,14 +1502,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1526,14 +1535,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1542,14 +1551,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1559,11 +1568,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>32</v>
@@ -1582,7 +1591,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1592,49 +1601,82 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1219</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>79</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>80</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
         <v>81</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>28</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>42</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1300</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>82</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>83</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>84</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1753,10 +1795,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -83,6 +83,24 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -92,6 +110,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -257,7 +287,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 1:36 PM</t>
+    <t>Sunday, 13 July, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1027,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1007,11 +1037,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1023,31 +1053,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1056,14 +1086,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1073,14 +1103,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1089,14 +1119,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1106,14 +1136,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1122,31 +1152,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1155,14 +1185,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1172,14 +1202,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1188,14 +1218,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1205,14 +1235,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1221,14 +1251,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,14 +1268,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1254,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1271,14 +1301,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1287,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1311,7 +1341,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1327,7 +1357,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1344,7 +1374,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1360,24 +1390,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1386,31 +1416,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,31 +1449,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,31 +1482,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1485,31 +1515,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1525,24 +1555,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1558,24 +1588,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1584,31 +1614,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1617,66 +1647,165 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1300</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>82</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>83</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>84</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>87</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>23</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>39</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>52</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>88</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>64</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>39</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>89</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>91</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>38</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>39</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>52</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1339.5999999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>92</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>93</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>94</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1800,10 +1929,25 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -68,6 +68,18 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -224,7 +236,7 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>43:0</t>
   </si>
   <si>
     <t>بيبرونه ALGO كبيره</t>
@@ -254,6 +266,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -284,10 +305,16 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 1:38 PM</t>
+    <t>Sunday, 13 July, 2025 2:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1011,7 +1038,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1020,14 +1047,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1037,14 +1064,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1070,11 +1097,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1086,14 +1113,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1103,11 +1130,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1119,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1165,18 +1192,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1185,20 +1212,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1209,7 +1236,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1218,14 +1245,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1235,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1251,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1268,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1284,7 +1311,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1301,14 +1328,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1317,14 +1344,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1334,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1350,14 +1377,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1367,14 +1394,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1383,14 +1410,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1427,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,14 +1443,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1440,7 +1467,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1456,7 +1483,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,14 +1493,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1482,31 +1509,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1515,31 +1542,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,31 +1575,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,31 +1608,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1621,24 +1648,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1654,13 +1681,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1668,10 +1695,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1680,31 +1707,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>42</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1713,31 +1740,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1746,66 +1773,165 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q32" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>95</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>68</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>43</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>96</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>98</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>24</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>43</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>96</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>100</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1339.5999999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>92</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>93</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>94</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>43</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>56</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1447.52</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>101</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>102</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>103</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1944,10 +2070,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -314,7 +326,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 2:39 PM</t>
+    <t>Sunday, 13 July, 2025 2:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1417,7 +1429,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,11 +1439,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1443,7 +1455,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1460,14 +1472,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,14 +1488,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1516,7 +1528,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,11 +1538,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>46</v>
@@ -1542,28 +1554,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>46</v>
@@ -1575,14 +1587,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1592,11 +1604,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>46</v>
@@ -1608,14 +1620,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1625,11 +1637,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>46</v>
@@ -1641,14 +1653,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,11 +1670,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>46</v>
@@ -1681,7 +1693,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1691,11 +1703,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>46</v>
@@ -1707,14 +1719,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1724,14 +1736,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,10 +1773,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1790,14 +1802,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1823,11 +1835,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>46</v>
@@ -1839,14 +1851,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1889,49 +1901,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>104</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>42</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>43</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>56</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>57</v>
       </c>
-      <c t="s" r="Q35" s="12">
+      <c t="s" r="Q36" s="12">
         <v>46</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1447.52</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>101</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>102</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>103</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1454.5699999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>105</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>106</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>107</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2085,10 +2130,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>130.00</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -167,6 +176,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
   </si>
   <si>
@@ -245,6 +263,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8555:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -290,21 +320,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
@@ -326,7 +356,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 2:40 PM</t>
+    <t>Sunday, 13 July, 2025 2:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1142,11 +1172,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1158,14 +1188,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1175,11 +1205,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1191,14 +1221,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1237,18 +1267,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1257,31 +1287,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1297,7 +1327,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1307,14 +1337,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1323,14 +1353,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,14 +1370,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1363,7 +1393,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1380,7 +1410,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1396,7 +1426,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1413,7 +1443,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1429,7 +1459,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1439,14 +1469,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1455,14 +1485,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1472,14 +1502,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1488,14 +1518,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1512,7 +1542,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1528,7 +1558,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1538,14 +1568,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1554,14 +1584,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1571,14 +1601,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1587,31 +1617,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,31 +1650,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1653,31 +1683,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1686,31 +1716,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1719,31 +1749,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1752,31 +1782,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,20 +1815,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1806,10 +1836,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1818,31 +1848,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1851,31 +1881,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1884,31 +1914,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1917,66 +1947,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q36" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>109</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>78</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>47</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>110</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>24</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>47</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>110</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>114</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1454.5699999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>105</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>106</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>107</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>47</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>62</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1526.47</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>115</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>116</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>117</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2135,10 +2264,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -176,6 +185,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -212,6 +233,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -263,6 +293,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VONASPIRE 10MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -275,6 +314,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -332,9 +380,6 @@
     <t>9.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>سهايه الجو</t>
   </si>
   <si>
@@ -350,10 +395,16 @@
     <t>قطن 50جم</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>كريم براشوت</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>Sunday, 13 July, 2025 2:41 PM</t>
@@ -1300,18 +1351,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,31 +1371,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1360,7 +1411,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1370,14 +1421,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1386,14 +1437,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1403,14 +1454,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1426,7 +1477,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1436,14 +1487,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1469,14 +1520,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1502,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1518,14 +1569,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1542,7 +1593,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1558,7 +1609,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1575,7 +1626,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1591,7 +1642,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1608,7 +1659,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,7 +1692,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1657,7 +1708,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1674,7 +1725,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1690,7 +1741,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1700,14 +1751,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,31 +1767,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1749,31 +1800,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,31 +1833,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1815,31 +1866,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1848,31 +1899,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,31 +1965,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1947,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1980,31 +2031,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2013,31 +2064,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2046,66 +2097,264 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>120</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1526.47</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>115</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>116</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>117</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>50</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>121</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>123</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>27</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>50</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>69</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>124</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>88</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>50</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>125</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>127</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>24</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>50</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>125</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>128</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>49</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>50</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>69</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>129</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>27</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>50</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>130</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1761.3900000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>132</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>133</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>134</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2279,10 +2528,40 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>130.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -245,13 +254,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:16</t>
+    <t>0:15</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>TRIACTIN 4MG 20 TAB</t>
@@ -407,7 +416,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 2:41 PM</t>
+    <t>Sunday, 13 July, 2025 3:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1384,18 +1393,18 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1404,31 +1413,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1444,7 +1453,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1470,14 +1479,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,14 +1496,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1512,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1527,7 +1536,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,7 +1552,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1560,7 +1569,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1576,7 +1585,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1593,7 +1602,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1626,7 +1635,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1642,7 +1651,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1659,7 +1668,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1675,7 +1684,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,14 +1694,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1701,14 +1710,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1725,7 +1734,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1741,7 +1750,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1758,7 +1767,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1774,7 +1783,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1824,7 +1833,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1840,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1857,7 +1866,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1873,7 +1882,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1899,20 +1908,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1923,7 +1932,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1939,24 +1948,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1965,31 +1974,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2005,24 +2014,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2031,31 +2040,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,20 +2073,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2088,7 +2097,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2104,24 +2113,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,31 +2139,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2170,24 +2179,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2196,31 +2205,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2236,24 +2245,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>112</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2262,31 +2271,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2295,66 +2304,99 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1761.3900000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>132</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>27</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>54</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>133</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>134</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1823.4400000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>135</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>136</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>137</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2558,10 +2600,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -68,6 +68,18 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -167,6 +176,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -233,6 +251,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>PEPZOL 40MG 14 CAPS</t>
   </si>
   <si>
@@ -377,7 +407,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -416,7 +446,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 3:02 PM</t>
+    <t>Sunday, 13 July, 2025 3:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1173,7 +1203,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1182,14 +1212,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1199,14 +1229,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1222,7 +1252,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1232,11 +1262,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1248,14 +1278,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1265,11 +1295,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1281,14 +1311,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1298,11 +1328,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1321,7 +1351,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1331,11 +1361,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1347,14 +1377,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1364,14 +1394,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1401,10 +1431,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1413,31 +1443,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1446,14 +1476,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1463,14 +1493,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1479,31 +1509,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1536,7 +1566,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1552,7 +1582,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1562,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1578,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1602,7 +1632,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1618,7 +1648,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1635,7 +1665,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1651,7 +1681,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1668,7 +1698,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1684,7 +1714,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1701,7 +1731,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1734,7 +1764,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1750,7 +1780,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1767,7 +1797,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1800,7 +1830,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1833,7 +1863,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1849,7 +1879,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1866,7 +1896,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1882,7 +1912,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1899,7 +1929,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1932,7 +1962,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1948,13 +1978,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1965,7 +1995,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1981,24 +2011,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>49</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,31 +2037,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2040,31 +2070,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2073,31 +2103,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,31 +2136,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2139,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,31 +2202,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2205,31 +2235,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2238,31 +2268,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2271,31 +2301,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2304,31 +2334,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2337,66 +2367,165 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1823.4400000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>135</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>136</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>137</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>140</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>28</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>60</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>138</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>141</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>59</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>60</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>78</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>142</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>31</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>60</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>143</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1928.28</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>145</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>146</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>147</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2605,10 +2734,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -422,6 +422,15 @@
     <t>سهايه الجو</t>
   </si>
   <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>قصافات اطفال</t>
   </si>
   <si>
@@ -446,7 +455,16 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 3:07 PM</t>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Sunday, 13 July, 2025 4:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2407,7 +2425,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2417,14 +2435,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2483,49 +2501,115 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>52</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1928.28</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>145</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>31</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>60</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>146</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>147</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>148</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>68</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>60</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>149</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1983.28</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>151</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>152</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>153</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2749,10 +2833,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -44,21 +44,54 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMIPRIDE 50MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>228.00</t>
   </si>
   <si>
     <t>114.0000</t>
   </si>
   <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>101.9700</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
@@ -71,9 +104,6 @@
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -131,9 +161,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -353,6 +380,24 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>39.9300</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">الو ايفا200مل </t>
   </si>
   <si>
@@ -455,6 +500,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -464,7 +515,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 4:02 PM</t>
+    <t>Sunday, 13 July, 2025 4:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1122,7 +1173,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1131,14 +1182,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1148,14 +1199,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1164,14 +1215,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1188,7 +1239,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1197,14 +1248,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1221,7 +1272,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1237,7 +1288,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1247,14 +1298,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1263,14 +1314,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1280,14 +1331,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1296,14 +1347,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1313,14 +1364,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1329,14 +1380,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1346,14 +1397,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1362,14 +1413,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1379,14 +1430,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1395,14 +1446,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1412,14 +1463,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1428,14 +1479,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1445,14 +1496,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1461,14 +1512,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1478,14 +1529,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1494,14 +1545,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1511,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1527,31 +1578,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1560,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1577,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1593,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1610,14 +1661,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1639,18 +1690,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1666,7 +1717,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1683,7 +1734,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1699,7 +1750,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1709,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1725,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1749,7 +1800,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1765,7 +1816,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1775,14 +1826,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1842,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1859,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1875,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,14 +1892,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1890,14 +1941,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1907,14 +1958,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1923,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1940,14 +1991,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1973,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1989,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2006,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2022,14 +2073,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2090,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2072,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,31 +2139,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,31 +2172,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2161,24 +2212,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,31 +2238,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,31 +2271,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,31 +2304,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,31 +2337,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>125</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,31 +2370,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2352,31 +2403,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2385,31 +2436,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,31 +2469,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2451,31 +2502,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2484,31 +2535,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2517,31 +2568,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2550,66 +2601,264 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1983.28</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>151</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>152</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>153</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>155</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>110</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>69</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>156</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>158</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>38</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>69</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>156</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>159</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>68</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>69</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>87</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>160</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>41</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>69</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>161</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>163</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>61</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>69</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>59</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>165</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>77</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>69</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>166</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2342.0799999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>168</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>169</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>170</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2843,10 +3092,40 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 4:04 PM</t>
+    <t>Sunday, 13 July, 2025 4:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -320,6 +320,12 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -515,7 +521,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 4:09 PM</t>
+    <t>Sunday, 13 July, 2025 4:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2047,7 +2053,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2057,11 +2063,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2073,7 +2079,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,11 +2129,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>61</v>
@@ -2139,14 +2145,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>61</v>
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2238,31 +2244,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,31 +2277,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,7 +2310,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2317,15 +2323,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>61</v>
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,11 +2360,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>61</v>
@@ -2377,7 +2383,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>61</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>61</v>
@@ -2453,11 +2459,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>61</v>
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>61</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2552,14 +2558,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2585,14 +2591,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2618,11 +2624,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>61</v>
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2651,11 +2657,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>61</v>
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>61</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2750,11 +2756,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>61</v>
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2783,7 +2789,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2806,7 +2812,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2816,49 +2822,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>61</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2342.0799999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>167</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>77</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>69</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>168</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>169</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c t="s" r="Q58" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2388.6100000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
         <v>170</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>171</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>172</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3122,10 +3161,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 4:20 PM</t>
+    <t>Sunday, 13 July, 2025 4:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -185,12 +185,18 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>4:3</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
+    <t>31.9200</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
@@ -212,12 +218,30 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -299,6 +323,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -308,6 +341,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -515,13 +557,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Sunday, 13 July, 2025 4:21 PM</t>
+    <t>Sunday, 13 July, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1605,10 +1641,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1617,14 +1653,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1634,11 +1670,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1650,14 +1686,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1667,11 +1703,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1683,31 +1719,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1716,14 +1752,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1733,14 +1769,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1749,31 +1785,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1782,14 +1818,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1799,14 +1835,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1815,14 +1851,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1832,14 +1868,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1848,14 +1884,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1865,14 +1901,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,14 +1917,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1898,14 +1934,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1914,14 +1950,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1967,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1947,14 +1983,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1964,14 +2000,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1980,14 +2016,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1997,14 +2033,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2013,14 +2049,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2030,14 +2066,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2082,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,14 +2099,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2079,14 +2115,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2096,14 +2132,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2148,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,14 +2165,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2198,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2195,14 +2231,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,14 +2247,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2228,11 +2264,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2268,7 +2304,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2284,24 +2320,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,31 +2379,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,31 +2412,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,31 +2445,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2442,31 +2478,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,31 +2511,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2508,31 +2544,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,31 +2577,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>142</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,31 +2610,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2607,31 +2643,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,31 +2676,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,31 +2709,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,31 +2742,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>142</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,31 +2775,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,31 +2808,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2805,31 +2841,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2838,66 +2874,198 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>61</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2388.6100000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>170</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>171</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>172</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>175</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>70</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>77</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>95</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>176</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>41</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>77</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>177</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>63</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>77</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>59</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>85</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>77</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>105</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2860.6100000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>182</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>183</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>184</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3166,10 +3334,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -239,6 +239,15 @@
     <t>256.0000</t>
   </si>
   <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -557,7 +566,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 4:26 PM</t>
+    <t>Sunday, 13 July, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,11 +1807,11 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1825,24 +1834,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1858,7 +1867,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1901,11 +1910,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>63</v>
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1941,7 +1950,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1957,7 +1966,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2122,7 +2131,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2155,7 +2164,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2188,7 +2197,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2240,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,7 +2273,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2304,7 +2313,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>63</v>
@@ -2346,14 +2355,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2386,7 +2395,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,20 +2454,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2469,7 +2478,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2485,13 +2494,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2502,7 +2511,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2524,7 +2533,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2551,21 +2560,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>63</v>
@@ -2577,28 +2586,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>63</v>
@@ -2617,21 +2626,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>63</v>
@@ -2643,28 +2652,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>63</v>
@@ -2676,20 +2685,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2716,24 +2725,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>156</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,7 +2751,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2755,18 +2764,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>85</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2782,24 +2791,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2808,28 +2817,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>63</v>
@@ -2848,13 +2857,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2881,24 +2890,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>156</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2907,31 +2916,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>63</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2940,28 +2949,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>63</v>
@@ -2980,21 +2989,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>63</v>
@@ -3006,66 +3015,99 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>63</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2860.6100000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>182</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>183</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>184</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>88</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>80</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>108</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3209.6100000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>185</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>186</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>187</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3354,10 +3396,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -92,6 +92,18 @@
     <t>72.2700</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
   </si>
   <si>
@@ -110,6 +122,15 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -182,6 +203,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -200,9 +233,6 @@
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -284,6 +314,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -458,9 +500,6 @@
     <t xml:space="preserve">الو ايفا200مل </t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>60.0000</t>
   </si>
   <si>
@@ -509,9 +548,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -557,6 +593,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -566,7 +605,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 5:05 PM</t>
+    <t>Sunday, 13 July, 2025 5:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1378,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1349,11 +1388,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1365,14 +1404,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1382,11 +1421,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1398,14 +1437,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1438,7 +1477,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1448,14 +1487,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1464,14 +1503,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1481,11 +1520,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1497,14 +1536,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1514,14 +1553,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1537,7 +1576,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1547,11 +1586,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1563,14 +1602,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1580,11 +1619,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1596,14 +1635,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1613,11 +1652,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1636,7 +1675,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1646,14 +1685,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1662,14 +1701,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1679,11 +1718,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1695,14 +1734,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1712,14 +1751,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1728,14 +1767,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1745,14 +1784,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>63</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1768,7 +1807,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1785,7 +1824,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1801,7 +1840,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1818,7 +1857,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1834,24 +1873,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1860,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1877,14 +1916,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1893,14 +1932,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1910,14 +1949,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1926,31 +1965,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1959,14 +1998,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1976,14 +2015,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1992,14 +2031,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2009,14 +2048,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2032,7 +2071,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2042,14 +2081,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,14 +2097,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2075,14 +2114,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2091,14 +2130,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2108,14 +2147,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2124,14 +2163,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2141,14 +2180,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2157,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2174,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2190,14 +2229,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2207,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2223,14 +2262,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2240,14 +2279,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2256,14 +2295,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2273,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2289,14 +2328,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2306,14 +2345,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2322,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2339,14 +2378,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2355,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2372,14 +2411,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2388,14 +2427,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2405,14 +2444,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2421,14 +2460,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2438,11 +2477,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2454,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2478,7 +2517,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2494,24 +2533,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2520,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2537,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2553,31 +2592,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2586,31 +2625,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2619,31 +2658,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2652,31 +2691,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2685,31 +2724,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2718,31 +2757,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2751,31 +2790,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>159</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2784,31 +2823,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2817,31 +2856,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2850,31 +2889,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2883,31 +2922,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2916,31 +2955,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2949,31 +2988,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2982,31 +3021,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3015,31 +3054,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3048,66 +3087,231 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>63</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3209.6100000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>185</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>186</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
-        <v>187</v>
-      </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>80</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>90</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>112</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>48</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>90</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>192</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>143</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>90</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>112</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>195</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>28</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>90</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>70</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>98</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>90</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>122</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3329.4000000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>198</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>199</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>200</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3401,10 +3605,35 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 5:08 PM</t>
+    <t>Sunday, 13 July, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -281,9 +293,6 @@
     <t>HUSH SACHET</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>130.0000</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
   </si>
   <si>
     <t>15.0000</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
   </si>
   <si>
     <t>NEUROTON 6 AMP</t>
@@ -1741,13 +1753,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1758,7 +1770,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1791,7 +1803,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1824,7 +1836,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,7 +1845,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1850,11 +1862,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1866,14 +1878,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1890,7 +1902,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1906,7 +1918,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,11 +1928,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1932,14 +1944,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,11 +1961,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -1965,28 +1977,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1998,31 +2010,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2038,7 +2050,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2048,14 +2060,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2064,14 +2076,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,11 +2093,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>28</v>
@@ -2097,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2142,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2170,7 +2182,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2187,7 +2199,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2203,7 +2215,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2236,7 +2248,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2258,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,31 +2274,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,11 +2357,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,11 +2390,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2394,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2448,10 +2460,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2505,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2538,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,11 +2588,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,11 +2654,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -2658,28 +2670,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,11 +2720,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -2724,31 +2736,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,28 +2769,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -2797,21 +2809,21 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -2823,28 +2835,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -2856,28 +2868,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -2889,28 +2901,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -2922,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2962,13 +2974,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2979,7 +2991,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2995,24 +3007,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3028,13 +3040,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3045,7 +3057,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3061,21 +3073,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3087,31 +3099,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3127,21 +3139,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3153,31 +3165,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>176</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3193,21 +3205,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3226,21 +3238,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3252,66 +3264,132 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3329.4000000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>199</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>28</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>65</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>74</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c t="s" r="Q69" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>101</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>65</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>126</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3508.5900000000001</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>202</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>203</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>204</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3630,10 +3708,20 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -617,7 +617,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 5:12 PM</t>
+    <t>Sunday, 13 July, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -572,6 +572,18 @@
     <t>سهايه الجو</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -617,7 +629,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 5:28 PM</t>
+    <t>Sunday, 13 July, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3106,7 +3118,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3128,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3132,7 +3144,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3149,11 +3161,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,11 +3260,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,11 +3326,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3347,49 +3359,82 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>101</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>65</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>126</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>127</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3508.5900000000001</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>202</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
-        <v>203</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
-        <v>204</v>
-      </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3558.5900000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>206</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>207</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>208</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3718,10 +3763,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>NERFACTORY TAB</t>
   </si>
   <si>
@@ -629,7 +638,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 5:29 PM</t>
+    <t>Sunday, 13 July, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2293,24 +2302,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,31 +2328,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2376,7 +2385,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2392,7 +2401,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2425,7 +2434,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2458,7 +2467,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2491,7 +2500,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,14 +2543,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,7 +2576,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2607,7 +2616,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2623,7 +2632,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2633,11 +2642,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2689,7 +2698,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2706,7 +2715,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2722,7 +2731,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2748,20 +2757,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2772,7 +2781,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2788,13 +2797,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2805,7 +2814,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2827,15 +2836,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -2847,14 +2856,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>28</v>
@@ -2920,7 +2929,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,11 +2939,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,11 +2972,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3019,7 +3028,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,7 +3054,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>101</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3095,14 +3104,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3144,14 +3153,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3184,7 +3193,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3217,7 +3226,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,14 +3269,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3276,14 +3285,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3293,11 +3302,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3316,7 +3325,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3326,11 +3335,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3359,11 +3368,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3392,49 +3401,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3558.5900000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>206</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>207</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>208</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>101</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>65</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>129</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3636.5900000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>209</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>210</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>211</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3768,10 +3810,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -170,7 +170,7 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>36.00</t>
@@ -365,6 +365,9 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -638,7 +641,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 5:58 PM</t>
+    <t>Sunday, 13 July, 2025 6:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2302,7 +2305,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2312,11 +2315,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>48</v>
@@ -2328,7 +2331,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2361,14 +2364,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2378,11 +2381,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2394,7 +2397,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2411,11 +2414,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2427,7 +2430,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2444,11 +2447,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>28</v>
@@ -2460,7 +2463,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2477,11 +2480,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2493,7 +2496,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2510,11 +2513,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2526,14 +2529,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2543,11 +2546,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>23</v>
@@ -2559,7 +2562,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2576,11 +2579,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2592,7 +2595,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2609,11 +2612,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2625,7 +2628,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2642,11 +2645,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2658,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2675,11 +2678,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>28</v>
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2708,11 +2711,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>28</v>
@@ -2724,7 +2727,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2757,14 +2760,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2774,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -2790,7 +2793,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2823,7 +2826,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2840,11 +2843,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>28</v>
@@ -2856,7 +2859,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2877,7 +2880,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2922,7 +2925,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2939,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3054,7 +3057,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3071,14 +3074,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3087,7 +3090,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>101</v>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3170,11 +3173,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,11 +3206,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3252,7 +3255,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3318,7 +3321,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3384,7 +3387,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3405,7 +3408,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3434,11 +3437,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3452,7 +3455,7 @@
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c t="s" r="A74" s="14">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3460,13 +3463,13 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c t="s" r="G74" s="15">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
       <c t="s" r="K74" s="17">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -326,13 +326,13 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>24.0000</t>
   </si>
   <si>
     <t>LARYPRO 20 LOZENGES</t>
@@ -362,6 +362,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -389,6 +401,12 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>PEPZOL 40MG 14 CAPS</t>
   </si>
   <si>
@@ -524,9 +542,6 @@
     <t xml:space="preserve">الو ايفا200مل </t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -572,6 +587,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -587,9 +608,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -620,6 +638,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كحول 70%</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
     <t>كريم براشوت</t>
   </si>
   <si>
@@ -633,9 +657,6 @@
   </si>
   <si>
     <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.0000</t>
   </si>
   <si>
     <t>مسك الرمان</t>
@@ -2190,7 +2211,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2305,7 +2326,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,31 +2352,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,31 +2418,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,11 +2501,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>28</v>
@@ -2496,7 +2517,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2513,11 +2534,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2546,14 +2567,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,7 +2616,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,7 +2748,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,11 +2798,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -2793,31 +2814,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,28 +2880,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>28</v>
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,28 +2946,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,11 +3029,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,11 +3062,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3095,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>180</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3140,11 +3161,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3163,7 +3184,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3276,10 +3297,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>180</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3305,11 +3326,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,11 +3359,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,14 +3392,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,11 +3425,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3427,7 +3448,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3437,49 +3458,181 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3636.5900000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>210</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>211</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>48</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>65</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>212</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>214</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>45</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>65</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>115</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>215</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>28</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>65</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>74</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>216</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>101</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>65</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>136</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3848.5900000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>217</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>218</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>219</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3818,10 +3971,30 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -314,120 +314,123 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -662,7 +665,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:16 PM</t>
+    <t>Sunday, 13 July, 2025 6:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2161,7 +2164,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2187,14 +2190,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>23</v>
@@ -2220,7 +2223,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2237,11 +2240,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2253,7 +2256,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>28</v>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2418,31 +2421,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2451,31 +2454,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,7 +2520,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2534,11 +2537,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>28</v>
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2666,14 +2669,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2699,14 +2702,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,11 +2735,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2748,7 +2751,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,11 +2801,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>28</v>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2913,31 +2916,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2946,31 +2949,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2979,7 +2982,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2992,15 +2995,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3019,7 +3022,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3029,11 +3032,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>28</v>
@@ -3045,14 +3048,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3062,11 +3065,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3111,14 +3114,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3128,11 +3131,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3161,11 +3164,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>193</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3210,7 +3213,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3227,14 +3230,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>101</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3283,7 +3286,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3309,14 +3312,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3326,11 +3329,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3359,11 +3362,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3392,14 +3395,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>185</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3415,7 +3418,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3448,7 +3451,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3524,14 +3527,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3547,7 +3550,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3580,7 +3583,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3590,49 +3593,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>217</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>139</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>65</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>136</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
         <v>137</v>
       </c>
-      <c t="s" r="Q76" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3848.5900000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>217</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c t="s" r="Q77" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4030.5900000000001</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>218</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>219</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>220</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3991,10 +4027,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -578,15 +578,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>جيل فاتيكا برطمان اخضر</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -665,7 +668,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:25 PM</t>
+    <t>Sunday, 13 July, 2025 6:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3187,7 +3190,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3220,7 +3223,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3230,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3246,7 +3249,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>139</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3319,7 +3322,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3329,11 +3332,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3362,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3378,7 +3381,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>28</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3428,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>186</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3451,7 +3454,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,14 +3464,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3484,7 +3487,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3527,11 +3530,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3543,14 +3546,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3560,14 +3563,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3583,7 +3586,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3616,7 +3619,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3626,49 +3629,82 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>218</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>139</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>65</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>136</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
         <v>137</v>
       </c>
-      <c t="s" r="Q77" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4030.5900000000001</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>218</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c t="s" r="Q78" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4070.5900000000001</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>219</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
         <v>220</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>221</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4032,10 +4068,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -158,6 +170,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -233,9 +254,6 @@
     <t>4:3</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>31.9200</t>
   </si>
   <si>
@@ -314,18 +332,12 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
     <t>104.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -500,9 +512,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VONASPIRE 10MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -668,7 +677,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:26 PM</t>
+    <t>Sunday, 13 July, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,7 +1351,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1352,11 +1361,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1368,14 +1377,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1385,14 +1394,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1408,7 +1417,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1425,7 +1434,7 @@
         <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1434,14 +1443,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1474,7 +1483,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1484,11 +1493,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1517,11 +1526,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1550,11 +1559,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1623,7 +1632,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1665,14 +1674,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1705,7 +1714,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,11 +1724,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1748,11 +1757,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1781,11 +1790,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1804,21 +1813,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1863,31 +1872,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,14 +1988,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,14 +2037,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2052,7 +2061,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2068,24 +2077,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2127,31 +2136,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2177,14 +2186,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,14 +2318,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2408,14 +2417,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2457,31 +2466,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,20 +2532,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2544,10 +2553,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,14 +2565,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2598,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,14 +2714,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,14 +2730,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2742,10 +2751,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2879,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2895,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2912,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,14 +2928,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2945,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,28 +2961,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2985,14 +2994,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3011,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,31 +3027,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,31 +3060,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,24 +3100,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3117,31 +3126,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,31 +3159,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,31 +3192,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,20 +3225,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3240,7 +3249,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,31 +3258,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>195</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,31 +3291,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>139</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,31 +3324,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3348,31 +3357,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3390,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,31 +3423,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,20 +3456,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3468,10 +3477,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>117</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,31 +3489,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3513,31 +3522,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3553,24 +3562,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3579,31 +3588,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3612,31 +3621,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3645,66 +3654,132 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4070.5900000000001</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>219</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>220</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>32</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>72</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>54</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>221</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>143</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>72</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>140</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4108.5900000000001</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>222</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>223</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>224</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4073,10 +4148,20 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -677,7 +677,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:30 PM</t>
+    <t>Sunday, 13 July, 2025 6:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
@@ -509,9 +518,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>VONASPIRE 10MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -554,6 +560,12 @@
     <t xml:space="preserve">الو ايفا200مل </t>
   </si>
   <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -605,9 +617,6 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -641,9 +650,6 @@
     <t>قصافات اطفال</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>10.0000</t>
   </si>
   <si>
@@ -677,7 +683,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:35 PM</t>
+    <t>Sunday, 13 July, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1978,7 +1984,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1988,14 +1994,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2044,7 +2050,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2054,14 +2060,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2070,14 +2076,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2110,7 +2116,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2143,21 +2149,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2169,31 +2175,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2209,7 +2215,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2219,14 +2225,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2235,14 +2241,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2252,14 +2258,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2268,14 +2274,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2285,14 +2291,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2308,7 +2314,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2325,7 +2331,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2341,7 +2347,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2358,7 +2364,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2374,7 +2380,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2407,7 +2413,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2417,11 +2423,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2433,14 +2439,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2450,11 +2456,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>32</v>
@@ -2499,14 +2505,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2516,14 +2522,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2532,31 +2538,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2565,31 +2571,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2598,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2615,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2648,7 +2654,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2671,7 +2677,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2704,7 +2710,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2714,11 +2720,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>32</v>
@@ -2730,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2770,7 +2776,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2780,14 +2786,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2796,14 +2802,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2846,7 +2852,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -2869,7 +2875,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2886,7 +2892,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2902,7 +2908,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2912,11 +2918,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>32</v>
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2949,7 +2955,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -2961,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2978,14 +2984,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3011,14 +3017,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3027,31 +3033,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3060,31 +3066,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3093,7 +3099,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3106,15 +3112,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>32</v>
@@ -3126,14 +3132,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3143,11 +3149,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3166,7 +3172,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3180,10 +3186,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3192,14 +3198,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3209,11 +3215,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3225,14 +3231,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3242,11 +3248,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3275,11 +3281,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>32</v>
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3308,11 +3314,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3331,7 +3337,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>198</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3364,7 +3370,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3374,14 +3380,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>143</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3390,14 +3396,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3407,14 +3413,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3423,14 +3429,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3440,14 +3446,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3473,11 +3479,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>32</v>
@@ -3489,14 +3495,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3506,11 +3512,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>32</v>
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3543,10 +3549,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>189</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3555,14 +3561,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3572,11 +3578,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>32</v>
@@ -3595,7 +3601,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3605,14 +3611,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3621,14 +3627,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3638,11 +3644,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>32</v>
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3671,14 +3677,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3704,11 +3710,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>32</v>
@@ -3727,7 +3733,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3737,49 +3743,115 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4108.5900000000001</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>222</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>32</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>72</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>54</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>223</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>146</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>72</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>143</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4164.5900000000001</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
         <v>224</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>225</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>226</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4158,10 +4230,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -422,6 +431,21 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -437,12 +461,18 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PERIOCARE MOUTH WASH</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>30.0000</t>
   </si>
   <si>
@@ -575,9 +605,6 @@
     <t>بيبرونه ALGO كبيره</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -590,9 +617,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -683,7 +707,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:44 PM</t>
+    <t>Sunday, 13 July, 2025 6:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1390,7 +1414,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1400,11 +1424,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1416,14 +1440,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1433,14 +1457,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1456,7 +1480,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1473,7 +1497,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1482,14 +1506,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1522,7 +1546,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1532,11 +1556,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1548,14 +1572,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1565,11 +1589,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1581,14 +1605,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1598,11 +1622,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1614,14 +1638,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1654,7 +1678,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1664,14 +1688,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1680,7 +1704,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1697,14 +1721,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1720,7 +1744,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1753,7 +1777,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1763,11 +1787,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1779,14 +1803,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1796,11 +1820,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1812,14 +1836,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1829,11 +1853,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1852,7 +1876,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1862,11 +1886,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1878,28 +1902,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1911,31 +1935,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1944,14 +1968,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1961,14 +1985,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1994,14 +2018,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2017,7 +2041,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2050,7 +2074,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2083,7 +2107,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,14 +2117,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2133,7 +2157,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2149,7 +2173,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2166,7 +2190,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2182,24 +2206,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2208,31 +2232,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2248,7 +2272,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2347,7 +2371,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2364,7 +2388,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2397,7 +2421,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2413,7 +2437,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2430,7 +2454,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2446,7 +2470,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2480,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2472,14 +2496,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2571,31 +2595,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2604,31 +2628,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2736,14 +2760,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2753,14 +2777,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2769,31 +2793,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2852,14 +2876,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,14 +2942,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2974,7 +2998,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3000,14 +3024,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3033,14 +3057,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3074,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,31 +3090,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3106,7 +3130,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3123,7 +3147,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3139,24 +3163,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3165,31 +3189,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,31 +3222,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,31 +3255,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,31 +3288,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3297,31 +3321,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3330,31 +3354,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3370,24 +3394,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3396,31 +3420,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>84</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,31 +3453,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>146</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3462,31 +3486,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3495,31 +3519,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,31 +3552,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>32</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,31 +3585,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3601,24 +3625,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>193</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,31 +3651,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3660,31 +3684,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3693,7 +3717,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3706,18 +3730,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3726,31 +3750,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3759,31 +3783,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3792,66 +3816,165 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>143</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4164.5900000000001</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>224</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>225</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>226</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>229</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>52</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>75</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>124</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>230</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>36</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>75</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>57</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>231</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>156</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>75</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>142</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4409.5900000000001</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>232</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>233</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>234</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4240,10 +4363,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -65,297 +65,306 @@
     <t>ANTINAL 200MG 24 CAPSULES</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>101.9700</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
+    <t>CALCITRON 30 CAPS.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>CAL-MAG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>31.9200</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>101.9700</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BLOKATENS 5/80MG 28 F.C. TAB</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>61.0000</t>
-  </si>
-  <si>
-    <t>CALCITRON 30 CAPS.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>CAL-MAG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>48.5100</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CEFTRIAXONE-SANDOZ 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>31.9200</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -515,6 +524,15 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -707,7 +725,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 6:52 PM</t>
+    <t>Sunday, 13 July, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,7 +1828,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1820,11 +1838,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1853,11 +1871,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1886,11 +1904,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1909,7 +1927,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1919,11 +1937,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1935,28 +1953,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1968,31 +1986,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2051,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2088,10 +2106,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2100,7 +2118,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2117,11 +2135,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2150,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2183,11 +2201,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>36</v>
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2216,11 +2234,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>36</v>
@@ -2232,24 +2250,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2272,24 +2290,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2315,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2338,7 +2356,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2348,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2371,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2381,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2421,7 +2439,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2437,7 +2455,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2454,7 +2472,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2470,7 +2488,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2503,7 +2521,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2513,11 +2531,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>36</v>
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>36</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>36</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2612,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2628,31 +2646,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2661,31 +2679,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>36</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2777,7 +2795,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2800,13 +2818,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2833,21 +2851,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>36</v>
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2876,11 +2894,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>36</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2932,7 +2950,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2975,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3008,7 +3026,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3031,7 +3049,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3048,7 +3066,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3064,7 +3082,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3107,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>36</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>36</v>
@@ -3189,28 +3207,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3262,24 +3280,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3288,31 +3306,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>156</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3321,28 +3339,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>36</v>
@@ -3354,31 +3372,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3387,28 +3405,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>36</v>
@@ -3420,28 +3438,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>36</v>
@@ -3453,28 +3471,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>36</v>
@@ -3493,21 +3511,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>36</v>
@@ -3519,31 +3537,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3552,20 +3570,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3576,7 +3594,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>156</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3585,31 +3603,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3618,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>36</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3651,28 +3669,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>36</v>
@@ -3691,21 +3709,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>36</v>
@@ -3717,31 +3735,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>144</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3750,28 +3768,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>36</v>
@@ -3783,31 +3801,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>36</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3816,28 +3834,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>36</v>
@@ -3849,31 +3867,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3882,28 +3900,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>116</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>36</v>
@@ -3915,66 +3933,132 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4409.5900000000001</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>232</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>233</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>234</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>236</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>36</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>78</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>57</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>237</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>159</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>78</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>145</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4475.9200000000001</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>238</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>239</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>240</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4378,10 +4462,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 7:08 PM</t>
+    <t>Sunday, 13 July, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACYCLOVIR-MISR 5% TOPICAL CREAM 10 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -179,6 +188,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -245,15 +269,21 @@
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>396.00</t>
   </si>
   <si>
     <t>130.6800</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -305,9 +335,6 @@
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>74.00</t>
   </si>
   <si>
@@ -539,9 +566,6 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>TRITOSPOT CREAM 15 GM</t>
   </si>
   <si>
@@ -566,6 +590,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VONASPIRE 10MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -605,6 +632,15 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">الو ايفا200مل </t>
   </si>
   <si>
@@ -644,12 +680,6 @@
     <t>جيل فاتيكا برطمان اخضر</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
@@ -677,9 +707,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -725,7 +752,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 7:12 PM</t>
+    <t>Sunday, 13 July, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1383,7 +1410,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1392,14 +1419,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1409,14 +1436,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1449,7 +1476,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1465,7 +1492,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1475,14 +1502,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1491,14 +1518,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1508,14 +1535,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1531,7 +1558,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1548,7 +1575,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1557,14 +1584,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1581,7 +1608,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1597,7 +1624,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1614,7 +1641,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1630,7 +1657,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1647,7 +1674,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1663,7 +1690,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1680,7 +1707,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1696,7 +1723,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1713,7 +1740,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1729,7 +1756,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1739,14 +1766,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1755,7 +1782,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1772,14 +1799,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1795,24 +1822,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1821,14 +1848,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1871,14 +1898,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1887,14 +1914,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1931,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1920,14 +1947,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1937,14 +1964,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1953,14 +1980,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1977,7 +2004,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,20 +2013,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2010,7 +2037,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2036,14 +2063,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,31 +2079,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2092,7 +2119,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2125,7 +2152,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2158,7 +2185,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2201,14 +2228,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2224,7 +2251,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2241,7 +2268,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2257,7 +2284,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2274,7 +2301,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2290,24 +2317,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2360,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2376,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2393,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,31 +2409,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2442,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2475,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2492,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2488,7 +2515,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2541,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2538,7 +2565,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2554,7 +2581,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2591,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2624,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2657,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2690,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,31 +2706,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,14 +2739,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2756,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2769,7 +2796,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>147</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,20 +2805,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2799,10 +2826,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2855,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,20 +2871,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2868,7 +2895,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>36</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2934,7 +2961,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,13 +2977,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2967,7 +2994,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2983,7 +3010,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3036,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3053,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3049,7 +3076,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3066,7 +3093,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3082,7 +3109,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,14 +3119,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3108,14 +3135,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3152,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,7 +3175,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3185,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3214,7 +3241,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3231,7 +3258,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3264,7 +3291,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,24 +3307,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3333,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3350,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3339,31 +3366,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,31 +3399,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>159</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,31 +3432,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,31 +3465,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,20 +3498,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3492,10 +3519,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,31 +3531,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3564,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,31 +3597,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,31 +3630,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,31 +3663,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,31 +3696,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3702,31 +3729,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,31 +3762,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3775,24 +3802,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>36</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3801,31 +3828,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,31 +3861,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,31 +3894,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>128</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3900,31 +3927,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3933,31 +3960,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3966,31 +3993,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3999,66 +4026,198 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4475.9200000000001</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>238</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>239</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>240</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>241</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>58</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>61</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>242</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>244</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>55</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>61</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>136</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>245</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>61</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>65</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>246</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>168</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>61</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>154</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4683.9200000000001</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>247</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>248</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>249</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4472,10 +4631,30 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -752,7 +752,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 7:55 PM</t>
+    <t>Sunday, 13 July, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -59,6 +59,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>AGIOLAX 12 GRANULES IN SACHETS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>190.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CERELAC قمح وتفاح بدون لبن</t>
   </si>
   <si>
@@ -635,9 +644,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -752,7 +758,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 7:57 PM</t>
+    <t>Sunday, 13 July, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1443,7 +1449,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1452,14 +1458,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1469,14 +1475,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1509,7 +1515,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1525,7 +1531,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1535,14 +1541,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1551,14 +1557,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1568,14 +1574,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1591,7 +1597,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1608,7 +1614,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1617,14 +1623,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1634,14 +1640,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1650,14 +1656,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1667,14 +1673,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1683,14 +1689,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1700,14 +1706,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1716,14 +1722,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1733,14 +1739,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1749,14 +1755,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1766,14 +1772,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1782,14 +1788,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1806,7 +1812,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1815,31 +1821,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1848,20 +1854,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1872,7 +1878,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1888,7 +1894,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1905,7 +1911,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1921,7 +1927,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1938,7 +1944,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1954,7 +1960,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1964,14 +1970,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1980,14 +1986,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1997,14 +2003,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,14 +2019,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2030,14 +2036,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2053,7 +2059,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2063,14 +2069,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2079,20 +2085,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2103,7 +2109,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2119,13 +2125,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2136,7 +2142,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2152,7 +2158,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,14 +2168,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2195,14 +2201,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2211,14 +2217,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,14 +2234,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2251,7 +2257,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2261,14 +2267,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2301,7 +2307,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2317,7 +2323,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2334,7 +2340,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2350,7 +2356,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2383,7 +2389,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2416,21 +2422,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2442,31 +2448,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2482,7 +2488,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2492,14 +2498,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2525,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2541,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2558,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2598,7 +2604,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2614,7 +2620,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2631,7 +2637,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2647,7 +2653,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2680,7 +2686,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2690,11 +2696,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2706,14 +2712,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2723,11 +2729,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2756,11 +2762,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2772,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2789,14 +2795,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2805,31 +2811,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2838,31 +2844,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>156</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2954,7 +2960,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2977,13 +2983,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3010,21 +3016,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,11 +3059,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3109,7 +3115,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3168,14 +3174,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3208,7 +3214,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3222,10 +3228,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3251,14 +3257,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3274,7 +3280,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3284,11 +3290,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3373,7 +3379,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3383,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,20 +3405,20 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3423,7 +3429,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3439,13 +3445,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3456,7 +3462,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3489,7 +3495,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3511,18 +3517,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3531,31 +3537,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3571,24 +3577,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3604,21 +3610,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3637,21 +3643,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3670,21 +3676,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3696,28 +3702,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3729,28 +3735,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3762,31 +3768,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3802,24 +3808,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>168</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,31 +3834,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,28 +3867,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3901,13 +3907,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3915,7 +3921,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3927,24 +3933,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -3967,24 +3973,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3993,31 +3999,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4026,28 +4032,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4066,21 +4072,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4092,31 +4098,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4125,31 +4131,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4158,66 +4164,99 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4683.9200000000001</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>247</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>248</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>171</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>64</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>157</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4783.9200000000001</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>249</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>250</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>251</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4651,10 +4690,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -242,18 +251,21 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:3</t>
+    <t>7:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -632,6 +644,18 @@
     <t>39.9300</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -680,9 +704,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>جيل فاتيكا برطمان اخضر</t>
   </si>
   <si>
@@ -692,7 +713,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>16.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -755,10 +776,13 @@
     <t>محلول رينجر</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 7:59 PM</t>
+    <t>Sunday, 13 July, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1621,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1614,7 +1638,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1663,7 +1687,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1696,7 +1720,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1729,7 +1753,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1762,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1795,7 +1819,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1828,7 +1852,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1854,31 +1878,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1887,20 +1911,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1911,7 +1935,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1927,7 +1951,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1960,7 +1984,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1993,7 +2017,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,11 +2027,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>24</v>
@@ -2019,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2125,21 +2149,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2151,28 +2175,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2307,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2300,14 +2324,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,7 +2340,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2333,11 +2357,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2349,14 +2373,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2406,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,11 +2423,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,11 +2456,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2448,28 +2472,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2481,31 +2505,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,14 +2538,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2588,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,14 +2604,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,14 +2621,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2620,7 +2644,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2670,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2712,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,11 +2753,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2745,14 +2769,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2762,11 +2786,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2778,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,11 +2819,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2828,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2851,24 +2875,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,31 +2901,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,7 +2958,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>159</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +3000,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,11 +3017,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3009,28 +3033,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3042,28 +3066,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3075,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,7 +3116,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3115,7 +3139,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,11 +3149,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3165,7 +3189,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3181,7 +3205,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,7 +3231,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3224,11 +3248,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>24</v>
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,11 +3281,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3346,7 +3370,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3429,7 +3453,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3445,24 +3469,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,31 +3495,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3537,7 +3561,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3550,15 +3574,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3570,31 +3594,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,28 +3627,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3636,31 +3660,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,28 +3693,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3702,28 +3726,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3735,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3768,31 +3792,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3801,31 +3825,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3834,31 +3858,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,31 +3891,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>140</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,28 +3957,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3966,28 +3990,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>192</v>
+        <v>106</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3999,31 +4023,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4032,28 +4056,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4065,31 +4089,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4098,31 +4122,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4131,31 +4155,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4164,28 +4188,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4197,66 +4221,165 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4783.9200000000001</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>249</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>250</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>251</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>254</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>67</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>71</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>255</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>212</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>67</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>71</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>256</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>175</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>67</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>161</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4973.8000000000002</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>257</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>258</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>259</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4695,10 +4818,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -464,9 +476,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -488,6 +497,12 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
@@ -503,6 +518,15 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>ORAMAX MOUTH SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -626,13 +650,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8555:0</t>
+    <t>8554:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
@@ -782,7 +806,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:01 PM</t>
+    <t>Sunday, 13 July, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2067,7 +2091,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2093,11 +2117,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>42</v>
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2126,14 +2150,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2142,14 +2166,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2182,21 +2206,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2208,28 +2232,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2241,14 +2265,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2357,14 +2381,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2373,7 +2397,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2390,11 +2414,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>24</v>
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2423,14 +2447,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2439,7 +2463,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2456,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2472,7 +2496,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2489,11 +2513,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2505,7 +2529,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2518,15 +2542,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2538,31 +2562,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2604,14 +2628,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2621,14 +2645,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2677,7 +2701,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2736,14 +2760,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2753,11 +2777,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2769,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2786,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2802,7 +2826,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2819,11 +2843,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2835,7 +2859,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2852,11 +2876,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2908,24 +2932,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2934,31 +2958,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2967,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>163</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3000,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3017,11 +3041,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3033,14 +3057,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3050,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3079,7 +3103,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3106,7 +3130,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3116,7 +3140,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3139,7 +3163,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3149,11 +3173,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3165,7 +3189,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3178,15 +3202,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3198,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3231,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3248,14 +3272,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3264,14 +3288,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3281,14 +3305,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3297,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3318,10 +3342,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3330,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3347,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3370,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,14 +3437,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3429,7 +3453,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3446,14 +3470,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3495,31 +3519,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3528,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3594,28 +3618,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>18</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3627,28 +3651,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3660,31 +3684,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,31 +3717,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3759,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3776,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3792,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3809,14 +3833,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,7 +3849,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3842,11 +3866,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,11 +3899,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3891,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3908,14 +3932,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>151</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3924,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3941,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3974,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3990,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4047,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,14 +4064,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>222</v>
+        <v>147</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4122,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4139,14 +4163,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4172,11 +4196,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4205,14 +4229,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4221,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4238,11 +4262,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4254,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4271,11 +4295,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4304,11 +4328,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4320,14 +4344,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>175</v>
+        <v>62</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4337,49 +4361,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4973.8000000000002</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>257</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>258</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>259</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>262</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>67</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>71</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>263</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>220</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>67</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>71</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>264</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>183</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>67</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>166</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5200.3000000000002</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>265</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>266</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>267</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4833,10 +4956,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -506,9 +506,6 @@
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -806,7 +803,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:04 PM</t>
+    <t>Sunday, 13 July, 2025 8:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3064,7 +3061,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3071,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>167</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>168</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,7 +3087,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3107,11 +3104,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3123,7 +3120,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3144,7 +3141,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3156,7 +3153,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3173,11 +3170,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3189,7 +3186,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3206,11 +3203,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3222,7 +3219,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3239,11 +3236,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3255,14 +3252,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,11 +3269,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3288,7 +3285,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3305,11 +3302,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3321,14 +3318,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,11 +3335,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>42</v>
@@ -3354,7 +3351,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3371,11 +3368,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3387,7 +3384,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3404,11 +3401,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3420,7 +3417,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3437,7 +3434,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3453,7 +3450,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3470,11 +3467,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3486,14 +3483,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3500,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3519,7 +3516,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3552,7 +3549,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3569,11 +3566,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3585,14 +3582,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3599,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3618,7 +3615,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3635,11 +3632,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3651,14 +3648,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3665,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3684,7 +3681,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3701,11 +3698,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3717,7 +3714,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3738,7 +3735,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>24</v>
@@ -3750,7 +3747,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3783,7 +3780,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3800,14 +3797,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3813,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3849,7 +3846,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3870,7 +3867,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3882,14 +3879,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3915,14 +3912,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,7 +3929,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3948,7 +3945,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3981,14 +3978,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4014,7 +4011,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4031,11 +4028,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>80</v>
@@ -4047,7 +4044,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4064,14 +4061,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,7 +4077,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4113,7 +4110,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4130,11 +4127,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4146,14 +4143,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4160,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4179,14 +4176,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4193,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4229,14 +4226,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,7 +4242,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4266,7 +4263,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4278,14 +4275,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4328,11 +4325,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4344,7 +4341,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4365,7 +4362,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4377,7 +4374,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4410,14 +4407,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4443,14 +4440,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4460,11 +4457,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4478,7 +4475,7 @@
     </row>
     <row r="100" ht="16.5" customHeight="1">
       <c t="s" r="A100" s="14">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4486,13 +4483,13 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c t="s" r="G100" s="15">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="16"/>
       <c t="s" r="K100" s="17">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -731,6 +731,9 @@
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -803,7 +806,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:06 PM</t>
+    <t>Sunday, 13 July, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3985,7 +3988,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3999,10 +4002,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4011,7 +4014,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4032,7 +4035,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>80</v>
@@ -4044,7 +4047,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>182</v>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4110,7 +4113,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4127,7 +4130,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4143,7 +4146,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4176,7 +4179,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4197,7 +4200,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4209,7 +4212,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4242,7 +4245,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4325,11 +4328,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4341,7 +4344,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4407,7 +4410,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4440,7 +4443,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4469,13 +4472,13 @@
     </row>
     <row r="99" ht="25.5" customHeight="1">
       <c r="P99" s="13">
-        <v>5200.3000000000002</v>
+        <v>5240.3000000000002</v>
       </c>
       <c r="Q99" s="13"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
       <c t="s" r="A100" s="14">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4483,13 +4486,13 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c t="s" r="G100" s="15">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="16"/>
       <c t="s" r="K100" s="17">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -734,6 +734,12 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>زيت حرير 100مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -752,6 +758,15 @@
     <t>سهايه الجو</t>
   </si>
   <si>
+    <t>شامبو+بلسم دوف عرض</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
@@ -773,6 +788,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -806,7 +830,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:08 PM</t>
+    <t>Sunday, 13 July, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4031,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>182</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4153,7 +4177,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4186,7 +4210,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4220,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4219,7 +4243,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>150</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>147</v>
+        <v>237</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4311,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4344,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4377,14 +4401,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4394,11 +4418,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4410,14 +4434,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4427,11 +4451,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4443,14 +4467,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4460,49 +4484,148 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5240.3000000000002</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>265</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>266</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>267</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>67</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>71</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>271</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>219</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>67</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>71</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>272</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>182</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>67</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>165</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5540.3000000000002</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>273</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>274</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>275</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4971,10 +5094,25 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:11 PM</t>
+    <t>Sunday, 13 July, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -167,6 +167,15 @@
     <t>61.0000</t>
   </si>
   <si>
+    <t>BRONCHICUM ELIXIR 100 ML</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CALCITRON 30 CAPS.</t>
   </si>
   <si>
@@ -314,9 +323,6 @@
     <t>138.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -392,6 +398,15 @@
     <t>349.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -830,7 +845,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:13 PM</t>
+    <t>Sunday, 13 July, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1851,7 +1866,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1867,7 +1882,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1900,7 +1915,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1933,7 +1948,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1943,14 +1958,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1959,31 +1974,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1992,20 +2007,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2016,7 +2031,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2032,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2065,7 +2080,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2098,7 +2113,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2141,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2157,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2174,11 +2189,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>42</v>
@@ -2190,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2230,7 +2245,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2240,11 +2255,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2256,20 +2271,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2296,13 +2311,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2329,7 +2344,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2339,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2355,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2387,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2442,10 +2457,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,7 +2469,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2471,11 +2486,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,14 +2519,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,11 +2552,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2570,11 +2585,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2586,24 +2601,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2626,7 +2641,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2643,7 +2658,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2659,17 +2674,17 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2692,7 +2707,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,11 +2717,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>17</v>
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2867,7 +2882,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2890,7 +2905,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,11 +2915,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2933,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2989,24 +3004,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3039,7 +3054,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3055,24 +3070,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3105,7 +3120,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3114,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,11 +3146,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>172</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3187,7 +3202,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3220,21 +3235,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,7 +3278,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3286,21 +3301,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,11 +3344,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3435,7 +3450,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3451,7 +3466,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3476,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>24</v>
@@ -3484,7 +3499,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3501,7 +3516,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3517,7 +3532,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3600,7 +3615,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3616,7 +3631,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,11 +3641,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>17</v>
@@ -3642,28 +3657,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,31 +3723,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3773,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3787,15 +3802,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3807,31 +3822,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>182</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3840,28 +3855,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3873,31 +3888,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,28 +3921,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3939,31 +3954,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3972,28 +3987,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4005,28 +4020,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>68</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>17</v>
@@ -4038,28 +4053,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4071,31 +4086,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>213</v>
+        <v>71</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,31 +4119,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4144,24 +4159,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,31 +4185,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,28 +4218,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>226</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4243,13 +4258,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4276,21 +4291,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4309,17 +4324,17 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4342,24 +4357,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>167</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,31 +4383,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,31 +4416,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4434,31 +4449,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4474,24 +4489,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>62</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4500,28 +4515,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4533,31 +4548,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4566,66 +4581,132 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5540.3000000000002</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>273</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>274</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>275</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>276</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>224</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>70</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>74</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>277</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>187</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>70</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>170</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5695.8000000000002</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>278</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>279</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>280</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5109,10 +5190,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -218,9 +227,6 @@
     <t>CERELAC قمح وتفاح بدون لبن</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -248,6 +254,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -299,13 +314,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
@@ -347,10 +362,10 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.0000</t>
   </si>
   <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
@@ -404,7 +419,7 @@
     <t>173.00</t>
   </si>
   <si>
-    <t>86.5000</t>
+    <t>173.0000</t>
   </si>
   <si>
     <t>HUSH SACHET</t>
@@ -479,6 +494,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
     <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
   </si>
   <si>
@@ -527,9 +545,6 @@
     <t>180.0000</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>ORAMAX MOUTH SPRAY 30 ML</t>
   </si>
   <si>
@@ -647,9 +662,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>VONASPIRE 10MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -845,7 +857,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:25 PM</t>
+    <t>Sunday, 13 July, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1663,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1661,14 +1673,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1684,7 +1696,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1717,7 +1729,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1734,7 +1746,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1743,14 +1755,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1760,14 +1772,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1783,7 +1795,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1816,7 +1828,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1849,7 +1861,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1866,7 +1878,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1882,7 +1894,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1899,7 +1911,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1915,7 +1927,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1948,7 +1960,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1981,7 +1993,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1991,14 +2003,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2007,31 +2019,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2040,31 +2052,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2073,14 +2085,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2090,11 +2102,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>24</v>
@@ -2106,14 +2118,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2123,11 +2135,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -2139,28 +2151,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2172,14 +2184,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2189,14 +2201,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2238,14 +2250,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2262,7 +2274,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2288,14 +2300,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2304,28 +2316,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>24</v>
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2377,24 +2389,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2410,7 +2422,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2486,14 +2498,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2585,14 +2597,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,11 +2630,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,24 +2679,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2707,7 +2719,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2724,7 +2736,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2740,17 +2752,17 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2773,7 +2785,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,14 +2894,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,14 +2927,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,7 +2960,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2971,7 +2983,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3070,24 +3082,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3103,7 +3115,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,31 +3174,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>172</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,11 +3257,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,28 +3306,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3393,28 +3405,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3537,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3620,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3723,31 +3735,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>35</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3756,14 +3768,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,28 +3834,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>24</v>
@@ -3855,28 +3867,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3888,31 +3900,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,31 +3933,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3954,28 +3966,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3987,31 +3999,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,31 +4032,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,28 +4065,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4086,31 +4098,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,31 +4131,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,31 +4164,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4185,31 +4197,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,28 +4230,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4251,31 +4263,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,31 +4296,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,28 +4329,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4350,28 +4362,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4383,28 +4395,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4416,31 +4428,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,31 +4461,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4482,28 +4494,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4522,24 +4534,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4548,28 +4560,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>17</v>
@@ -4581,28 +4593,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4614,28 +4626,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4647,66 +4659,165 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5695.8000000000002</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>278</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
         <v>279</v>
       </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>12</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>72</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>76</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
         <v>280</v>
       </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>228</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>72</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>76</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>281</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>192</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>72</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>176</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5994.1400000000003</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>282</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>283</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>284</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5200,10 +5311,25 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -479,6 +479,12 @@
     <t>145.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LYSE 0.65% NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -857,7 +863,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:29 PM</t>
+    <t>Sunday, 13 July, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2983,7 +2989,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3026,7 +3032,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3059,11 +3065,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3075,7 +3081,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3108,7 +3114,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3148,7 +3154,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3174,31 +3180,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3207,31 +3213,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3306,7 +3312,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3339,7 +3345,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3356,7 +3362,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3405,7 +3411,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3418,15 +3424,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3438,24 +3444,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3478,7 +3484,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3488,11 +3494,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3620,11 +3626,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3676,7 +3682,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3690,10 +3696,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3719,11 +3725,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3834,31 +3840,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3867,31 +3873,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3917,11 +3923,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3933,7 +3939,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3979,18 +3985,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4039,7 +4045,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4072,7 +4078,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4105,7 +4111,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4115,11 +4121,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4138,7 +4144,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4171,7 +4177,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4181,14 +4187,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4218,10 +4224,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4237,7 +4243,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>192</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4379,11 +4385,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4395,14 +4401,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4412,11 +4418,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4435,7 +4441,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4449,7 +4455,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4478,7 +4484,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4501,7 +4507,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4511,11 +4517,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4527,14 +4533,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4544,14 +4550,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4560,14 +4566,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4633,7 +4639,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4643,11 +4649,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4659,14 +4665,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4676,14 +4682,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4692,14 +4698,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4709,14 +4715,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4775,49 +4781,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5994.1400000000003</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>282</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>283</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>194</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>72</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>178</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6009.9799999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
         <v>284</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>285</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>286</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5326,10 +5365,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -338,6 +338,9 @@
     <t>138.00</t>
   </si>
   <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -863,7 +866,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:41 PM</t>
+    <t>Sunday, 13 July, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2428,7 +2431,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2442,10 +2445,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2454,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>45</v>
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2508,10 +2511,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>17</v>
@@ -2553,7 +2556,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2603,11 +2606,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>24</v>
@@ -2619,7 +2622,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2636,11 +2639,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2652,7 +2655,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2702,11 +2705,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2735,11 +2738,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2751,7 +2754,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2784,7 +2787,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2801,11 +2804,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
@@ -2817,7 +2820,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2838,7 +2841,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2850,7 +2853,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
@@ -2883,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,11 +2903,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>45</v>
@@ -2916,7 +2919,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2933,11 +2936,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2966,11 +2969,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2982,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3003,7 +3006,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -3015,7 +3018,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3032,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3048,7 +3051,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3065,11 +3068,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3081,7 +3084,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3114,7 +3117,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3135,7 +3138,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3147,7 +3150,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3180,7 +3183,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3197,11 +3200,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,11 +3266,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>45</v>
@@ -3279,7 +3282,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3300,7 +3303,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3312,7 +3315,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3345,7 +3348,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3362,11 +3365,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3378,7 +3381,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3399,7 +3402,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3411,7 +3414,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3428,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3444,7 +3447,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3461,11 +3464,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3477,7 +3480,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3494,11 +3497,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3510,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,11 +3530,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3543,7 +3546,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3560,11 +3563,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>45</v>
@@ -3609,7 +3612,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3642,7 +3645,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3675,7 +3678,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3692,7 +3695,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3708,7 +3711,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3725,11 +3728,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3774,7 +3777,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3795,7 +3798,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>17</v>
@@ -3807,7 +3810,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>24</v>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3873,7 +3876,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3890,11 +3893,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>24</v>
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,11 +3926,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3939,7 +3942,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3972,7 +3975,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3993,7 +3996,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>24</v>
@@ -4005,7 +4008,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4038,7 +4041,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,11 +4091,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4104,7 +4107,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4125,7 +4128,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,11 +4157,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,7 +4190,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4203,7 +4206,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4257,7 +4260,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4269,7 +4272,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4286,11 +4289,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4319,11 +4322,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>88</v>
@@ -4335,7 +4338,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,7 +4371,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4385,11 +4388,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4401,7 +4404,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4418,11 +4421,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4434,7 +4437,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4484,11 +4487,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,11 +4553,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4599,7 +4602,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4616,11 +4619,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4632,14 +4635,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4649,11 +4652,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4665,7 +4668,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4682,11 +4685,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4715,11 +4718,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>17</v>
@@ -4731,7 +4734,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4752,7 +4755,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4785,7 +4788,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4797,14 +4800,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4814,11 +4817,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4826,13 +4829,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>6009.9799999999996</v>
+        <v>6078.9799999999996</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4840,13 +4843,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -431,6 +431,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -554,6 +566,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
     <t>ORAMAX MOUTH SPRAY 30 ML</t>
   </si>
   <si>
@@ -866,7 +887,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:44 PM</t>
+    <t>Sunday, 13 July, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2794,7 +2815,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,14 +2858,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,14 +2891,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2903,14 +2924,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2926,7 +2947,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,14 +2957,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,14 +2990,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3084,7 +3105,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3101,11 +3122,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3117,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3134,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3150,7 +3171,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3167,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3183,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,31 +3237,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,31 +3270,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3289,7 +3310,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3315,7 +3336,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,7 +3369,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3365,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3381,14 +3402,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,14 +3419,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3414,7 +3435,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3431,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3447,7 +3468,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3460,15 +3481,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3513,28 +3534,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,7 +3584,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3603,7 +3624,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3619,7 +3640,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3683,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,11 +3716,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3711,14 +3732,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,14 +3782,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3784,7 +3805,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3815,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,14 +3831,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,14 +3848,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3843,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>17</v>
@@ -3883,13 +3904,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3933,7 +3954,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3949,13 +3970,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3966,7 +3987,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3982,7 +4003,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4008,7 +4029,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4021,15 +4042,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>149</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4041,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,14 +4095,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4091,11 +4112,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4107,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4124,14 +4145,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4157,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4173,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,14 +4211,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,11 +4244,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4239,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4256,11 +4277,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>17</v>
@@ -4272,7 +4293,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4289,11 +4310,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4305,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4322,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,7 +4359,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4355,14 +4376,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4409,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>161</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,7 +4425,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4421,14 +4442,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,11 +4475,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4470,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4503,14 +4524,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,11 +4541,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4536,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,11 +4574,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4569,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,14 +4607,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4602,14 +4623,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,14 +4640,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,14 +4656,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,14 +4673,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4668,14 +4689,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,14 +4706,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4701,14 +4722,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4718,14 +4739,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4734,14 +4755,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4751,11 +4772,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4767,14 +4788,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4784,14 +4805,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4800,14 +4821,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4817,49 +4838,115 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6078.9799999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>285</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>286</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>287</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>290</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>238</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>72</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>76</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>291</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>202</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>72</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>183</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6184.5200000000004</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>292</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>293</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>294</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5373,10 +5460,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -314,519 +314,522 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>31.9200</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>ORAMAX MOUTH SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH WASH</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VONASPIRE 10MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8554:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>39.9300</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>جيل فاتيكا برطمان اخضر</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>زيت حرير 100مل</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>شامبو+بلسم دوف عرض</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>31.9200</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>OCTOZINC 25MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>ORAMAX MOUTH SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH WASH</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VONASPIRE 10MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8554:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
-  </si>
-  <si>
-    <t>121.00</t>
-  </si>
-  <si>
-    <t>39.9300</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الو ايفا200مل </t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>43:0</t>
-  </si>
-  <si>
-    <t>بيبرونه ALGO كبيره</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>جيل فاتيكا برطمان اخضر</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>زيت حرير 100مل</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>شامبو+بلسم دوف عرض</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -887,7 +890,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:47 PM</t>
+    <t>Sunday, 13 July, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2403,7 +2406,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -4531,7 +4534,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,7 +4544,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4557,7 +4560,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4574,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4590,7 +4593,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4611,7 +4614,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4623,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4656,7 +4659,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4689,7 +4692,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4722,14 +4725,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4755,7 +4758,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4772,11 +4775,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4788,7 +4791,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4821,7 +4824,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4854,7 +4857,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4887,7 +4890,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4916,13 +4919,13 @@
     </row>
     <row r="110" ht="24.75" customHeight="1">
       <c r="P110" s="13">
-        <v>6184.5200000000004</v>
+        <v>6200.3599999999997</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
       <c t="s" r="A111" s="14">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4930,13 +4933,13 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c t="s" r="G111" s="15">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16"/>
       <c t="s" r="K111" s="17">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -887,10 +887,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:48 PM</t>
+    <t>Sunday, 13 July, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4864,7 +4867,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>238</v>
+        <v>88</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4878,10 +4881,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4890,7 +4893,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4919,13 +4922,13 @@
     </row>
     <row r="110" ht="24.75" customHeight="1">
       <c r="P110" s="13">
-        <v>6200.3599999999997</v>
+        <v>6224.3599999999997</v>
       </c>
       <c r="Q110" s="13"/>
     </row>
     <row r="111" ht="16.5" customHeight="1">
       <c t="s" r="A111" s="14">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -4933,13 +4936,13 @@
       <c r="E111" s="14"/>
       <c r="F111" s="14"/>
       <c t="s" r="G111" s="15">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16"/>
       <c t="s" r="K111" s="17">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -893,7 +893,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 8:49 PM</t>
+    <t>Sunday, 13 July, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3415,7 +3415,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -557,6 +557,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
@@ -653,6 +662,15 @@
     <t>46.5300</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
   </si>
   <si>
@@ -779,9 +797,6 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>جيل فاتيكا برطمان اخضر</t>
   </si>
   <si>
@@ -854,9 +869,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -893,7 +905,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:09 PM</t>
+    <t>Sunday, 13 July, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3382,7 +3394,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3399,7 +3411,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,7 +3444,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3465,7 +3477,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3491,11 +3503,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3507,7 +3519,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3524,7 +3536,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>65</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3553,7 +3565,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3580,21 +3592,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3679,7 +3691,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3738,7 +3750,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3755,7 +3767,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3778,7 +3790,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>85</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3833,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3858,10 +3870,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>119</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,11 +3965,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -3969,28 +3981,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>24</v>
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,31 +4047,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,7 +4113,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4114,15 +4126,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4134,31 +4146,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>202</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,11 +4196,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4200,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4316,11 +4328,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4332,14 +4344,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>17</v>
@@ -4365,7 +4377,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4382,11 +4394,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>73</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4398,14 +4410,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,7 +4443,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4448,14 +4460,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4471,7 +4483,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,14 +4493,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4497,7 +4509,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4514,14 +4526,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4530,14 +4542,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4547,11 +4559,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4563,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,11 +4592,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4596,14 +4608,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,11 +4625,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4636,7 +4648,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,7 +4658,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4669,7 +4681,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,14 +4691,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,14 +4724,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4728,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>68</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4745,14 +4757,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4761,14 +4773,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4778,14 +4790,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4794,14 +4806,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4815,10 +4827,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4834,7 +4846,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4844,11 +4856,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4860,14 +4872,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4877,11 +4889,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>17</v>
@@ -4893,14 +4905,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4910,49 +4922,115 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6224.3599999999997</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>294</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>295</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>88</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>72</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>76</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>296</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>297</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>205</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>72</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>186</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>6208.7200000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>298</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>299</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>300</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5476,10 +5554,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -905,7 +905,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:12 PM</t>
+    <t>Sunday, 13 July, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -434,235 +434,238 @@
     <t>IMIPRAMINE 25MG 50 TAB.</t>
   </si>
   <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>ORAMAX MOUTH SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH WASH</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
     <t>2:2</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>10.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OCTOZINC 25MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>ORAMAX MOUTH SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH WASH</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>-35.6400</t>
@@ -2850,7 +2853,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3790,7 +3793,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3804,10 +3807,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,7 +3819,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>24</v>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3866,7 +3869,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3882,7 +3885,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3915,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3932,11 +3935,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3948,7 +3951,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3981,7 +3984,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3998,11 +4001,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>24</v>
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4031,11 +4034,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>17</v>
@@ -4047,7 +4050,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4064,11 +4067,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>24</v>
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4113,7 +4116,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4167,7 +4170,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>24</v>
@@ -4179,7 +4182,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4229,7 +4232,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4278,7 +4281,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4299,7 +4302,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4377,7 +4380,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4410,7 +4413,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4431,7 +4434,7 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>17</v>
@@ -4443,7 +4446,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4460,7 +4463,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4476,7 +4479,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4493,11 +4496,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>88</v>
@@ -4509,7 +4512,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4526,11 +4529,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>205</v>
@@ -4542,7 +4545,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4575,7 +4578,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4592,11 +4595,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4608,14 +4611,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,11 +4628,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4641,14 +4644,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4658,11 +4661,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4674,14 +4677,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,11 +4694,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4707,14 +4710,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4740,7 +4743,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4757,7 +4760,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4773,7 +4776,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4806,14 +4809,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4839,7 +4842,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4856,11 +4859,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4872,7 +4875,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4905,7 +4908,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4938,7 +4941,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>17</v>
@@ -4971,7 +4974,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5000,13 +5003,13 @@
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="P112" s="13">
-        <v>6208.7200000000003</v>
+        <v>6250.7200000000003</v>
       </c>
       <c r="Q112" s="13"/>
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c t="s" r="A113" s="14">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -5014,13 +5017,13 @@
       <c r="E113" s="14"/>
       <c r="F113" s="14"/>
       <c t="s" r="G113" s="15">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="16"/>
       <c t="s" r="K113" s="17">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -617,6 +617,9 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
@@ -908,7 +911,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:14 PM</t>
+    <t>Sunday, 13 July, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3654,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3671,11 +3674,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3687,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3704,11 +3707,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3720,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3770,14 +3773,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>220</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3819,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3836,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3869,11 +3872,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>24</v>
@@ -3885,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,11 +3938,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3991,7 +3994,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4020,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4050,31 +4053,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,31 +4086,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4133,11 +4136,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4149,7 +4152,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4182,7 +4185,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4195,18 +4198,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4222,7 +4225,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,14 +4235,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>205</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4248,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4281,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,11 +4301,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4314,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,11 +4334,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4347,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4387,7 +4390,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>231</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4397,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4420,7 +4423,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4434,10 +4437,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4446,14 +4449,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4463,14 +4466,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4479,7 +4482,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4496,14 +4499,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4512,7 +4515,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4529,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>205</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4545,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4562,14 +4565,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>164</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4585,7 +4588,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,11 +4598,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4611,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,11 +4631,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4644,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4677,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4710,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4743,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,14 +4763,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4783,7 +4786,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,14 +4796,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4816,7 +4819,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4830,10 +4833,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4842,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,11 +4862,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4875,14 +4878,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4892,14 +4895,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4915,7 +4918,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4925,14 +4928,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4948,7 +4951,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4962,10 +4965,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4974,14 +4977,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4991,49 +4994,82 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>6250.7200000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>299</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>206</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>72</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>186</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6331.7200000000003</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>300</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
         <v>301</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>302</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5567,10 +5603,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -302,6 +314,9 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
     <t>DICLOPRO 150 MG ID 20 TABS.</t>
   </si>
   <si>
@@ -707,12 +722,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -911,7 +920,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:31 PM</t>
+    <t>Sunday, 13 July, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2146,7 +2155,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2189,11 +2198,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>24</v>
@@ -2205,31 +2214,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2238,31 +2247,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2295,7 +2304,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2328,7 +2337,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2354,11 +2363,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>45</v>
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2387,14 +2396,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2436,28 +2445,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,31 +2511,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2568,14 +2577,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2634,14 +2643,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2651,14 +2660,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2667,14 +2676,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2684,14 +2693,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2766,14 +2775,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,11 +2792,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2812,11 +2821,11 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2839,7 +2848,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2849,11 +2858,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2865,31 +2874,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2898,14 +2907,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2915,7 +2924,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2938,7 +2947,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2948,11 +2957,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2981,14 +2990,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3080,7 +3089,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3103,7 +3112,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3136,7 +3145,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3195,7 +3204,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3228,7 +3237,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3301,24 +3310,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3351,7 +3360,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3367,24 +3376,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3417,7 +3426,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3492,7 +3501,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3509,14 +3518,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3525,7 +3534,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3604,15 +3613,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3657,28 +3666,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>221</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3855,7 +3864,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3872,11 +3881,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>24</v>
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3928,7 +3937,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3945,7 +3954,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3961,7 +3970,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4027,7 +4036,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>17</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4086,28 +4095,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>24</v>
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,31 +4161,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4218,7 +4227,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4231,15 +4240,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>167</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4258,24 +4267,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>206</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4291,7 +4300,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,11 +4376,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4383,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4409,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4423,7 +4432,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>265</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,11 +4475,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>17</v>
@@ -4499,11 +4508,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4515,14 +4524,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4532,14 +4541,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>240</v>
+        <v>73</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4548,7 +4557,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4565,14 +4574,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>206</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4581,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,7 +4623,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4631,14 +4640,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4680,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4697,11 +4706,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4713,14 +4722,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4730,11 +4739,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4772,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,14 +4805,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4819,7 +4828,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,14 +4838,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4845,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,14 +4871,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4885,7 +4894,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,14 +4904,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4911,14 +4920,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,14 +4937,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4944,14 +4953,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,11 +4970,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>154</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4977,14 +4986,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4994,11 +5003,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5017,7 +5026,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5027,49 +5036,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6331.7200000000003</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>300</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>92</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>72</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>80</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>301</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c t="s" r="Q113" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>302</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>211</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>72</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>191</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6411.7200000000003</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>303</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>304</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>305</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5608,10 +5683,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -920,7 +920,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:39 PM</t>
+    <t>Sunday, 13 July, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t xml:space="preserve">COFDIETIN  CAPS</t>
   </si>
   <si>
@@ -290,9 +299,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
     <t>33.0000</t>
   </si>
   <si>
@@ -599,6 +605,15 @@
     <t>95.0400</t>
   </si>
   <si>
+    <t>ONE ALPHA 1 MCG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>ORAMAX MOUTH SPRAY 30 ML</t>
   </si>
   <si>
@@ -608,6 +623,9 @@
     <t>59.5000</t>
   </si>
   <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -662,6 +680,15 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -920,7 +947,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:42 PM</t>
+    <t>Sunday, 13 July, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2254,13 +2281,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2271,7 +2298,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2287,13 +2314,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2304,7 +2331,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2320,7 +2347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2363,14 +2390,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2379,14 +2406,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,11 +2423,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>45</v>
@@ -2419,7 +2446,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2445,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>100</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2511,31 +2538,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2544,31 +2571,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2643,14 +2670,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2660,14 +2687,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2676,14 +2703,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2693,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2709,7 +2736,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2726,11 +2753,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2742,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2759,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2775,7 +2802,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2792,11 +2819,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2808,7 +2835,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2825,11 +2852,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,11 +2885,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2874,24 +2901,24 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2914,21 +2941,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2940,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,14 +2984,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3013,7 +3040,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3023,14 +3050,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3046,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3138,14 +3165,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3155,14 +3182,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3178,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3188,14 +3215,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,14 +3231,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,7 +3248,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3254,11 +3281,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3270,7 +3297,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3287,11 +3314,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3303,7 +3330,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3320,11 +3347,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3343,7 +3370,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3380,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,31 +3396,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3402,31 +3429,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3435,14 +3462,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,14 +3479,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3475,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,11 +3512,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,7 +3561,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,7 +3594,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3584,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3673,24 +3700,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,11 +3743,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3732,14 +3759,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,7 +3776,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3772,21 +3799,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3798,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3815,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3831,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3881,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3914,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3947,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>24</v>
@@ -3963,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4029,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4062,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>211</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4095,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,11 +4139,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>24</v>
@@ -4135,7 +4162,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,31 +4188,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4227,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,20 +4353,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>92</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4347,10 +4374,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4359,28 +4386,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>169</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>170</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4392,31 +4419,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4425,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,11 +4469,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4458,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4508,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4524,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4541,14 +4568,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4590,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>92</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4623,7 +4650,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4640,14 +4667,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>73</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>211</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4663,7 +4690,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4673,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,7 +4716,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4706,11 +4733,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4729,7 +4756,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4739,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4755,14 +4782,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4772,14 +4799,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4788,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>236</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,11 +4832,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4821,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,11 +4865,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>189</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4854,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4887,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>209</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4920,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4937,11 +4964,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>170</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4953,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4970,11 +4997,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4986,7 +5013,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5003,14 +5030,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5019,14 +5046,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5036,14 +5063,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5052,14 +5079,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5069,14 +5096,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5085,14 +5112,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5102,49 +5129,181 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6411.7200000000003</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>303</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>304</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>305</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>307</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>68</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>72</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>171</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>308</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>72</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>80</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>309</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>95</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>72</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>80</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>311</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>217</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>72</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>193</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6613.6199999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>312</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>313</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>314</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5693,10 +5852,30 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -653,12 +653,24 @@
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
+    <t>162.0000</t>
+  </si>
+  <si>
     <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -701,6 +713,9 @@
     <t>14.1000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -947,7 +962,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:44 PM</t>
+    <t>Sunday, 13 July, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3832,7 +3847,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3846,10 +3861,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,7 +3873,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3879,7 +3894,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3891,14 +3906,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3931,7 +3946,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,11 +3956,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4005,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4014,7 +4029,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4030,7 +4045,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4055,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4088,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>235</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,7 +4104,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4106,11 +4121,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>24</v>
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4162,7 +4177,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4179,7 +4194,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4210,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4243,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>17</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,28 +4335,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>24</v>
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4385,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,31 +4401,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4465,15 +4480,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4485,31 +4500,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>217</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,11 +4550,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4551,14 +4566,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4583,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,14 +4599,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4617,14 +4632,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,14 +4649,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,11 +4682,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,11 +4715,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4716,7 +4731,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4733,11 +4748,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>73</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4781,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,7 +4797,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4799,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4822,7 +4837,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4865,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,11 +4913,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,11 +4946,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4947,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,11 +4979,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4987,7 +5002,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5013,14 +5028,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5061,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,14 +5078,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5079,14 +5094,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>68</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,14 +5111,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5112,14 +5127,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,14 +5144,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>171</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5152,7 +5167,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>68</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5166,10 +5181,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5178,14 +5193,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5195,11 +5210,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5211,14 +5226,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5228,11 +5243,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>17</v>
@@ -5244,14 +5259,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5261,49 +5276,115 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6613.6199999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>312</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>313</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
         <v>314</v>
       </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>95</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>72</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>80</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>315</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>316</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>221</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>72</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>193</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6975.6199999999999</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>317</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>318</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>319</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5872,10 +5953,20 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -551,222 +551,228 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
+    <t>7:1</t>
+  </si>
+  <si>
     <t>39.00</t>
   </si>
   <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>ONE ALPHA 1 MCG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>ORAMAX MOUTH SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH WASH</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>78.0000</t>
   </si>
   <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OCTOZINC 25MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>ONE ALPHA 1 MCG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>ORAMAX MOUTH SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>OST-MAP 60MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH WASH</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>VONASPIRE 10MG 14 F.C. TAB</t>
   </si>
   <si>
@@ -872,7 +878,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
+    <t>18.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -962,7 +968,7 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:46 PM</t>
+    <t>Sunday, 13 July, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3418,7 +3424,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>17</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3444,7 +3450,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3494,11 +3500,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>45</v>
@@ -3510,7 +3516,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3531,7 +3537,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3543,7 +3549,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3576,7 +3582,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3593,11 +3599,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>125</v>
@@ -3609,7 +3615,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3626,11 +3632,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3642,7 +3648,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3659,11 +3665,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>24</v>
@@ -3675,7 +3681,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3692,11 +3698,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3708,7 +3714,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3741,7 +3747,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3762,7 +3768,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3791,11 +3797,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3807,7 +3813,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3824,11 +3830,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3840,7 +3846,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -3873,7 +3879,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3906,7 +3912,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3923,11 +3929,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3956,11 +3962,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3972,7 +3978,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3989,11 +3995,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4005,7 +4011,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4022,11 +4028,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>24</v>
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>45</v>
@@ -4071,7 +4077,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4104,7 +4110,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>24</v>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4158,10 +4164,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4170,7 +4176,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>24</v>
@@ -4203,7 +4209,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4220,7 +4226,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4236,7 +4242,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4323,10 +4329,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4335,7 +4341,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>24</v>
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4385,11 +4391,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>17</v>
@@ -4401,7 +4407,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4418,11 +4424,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4434,14 +4440,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,11 +4457,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4467,7 +4473,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4484,11 +4490,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4500,7 +4506,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4521,7 +4527,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>24</v>
@@ -4533,7 +4539,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4566,7 +4572,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4583,14 +4589,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4599,14 +4605,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4632,7 +4638,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4653,7 +4659,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4698,14 +4704,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4715,7 +4721,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4731,7 +4737,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4764,7 +4770,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4785,7 +4791,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4797,7 +4803,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4814,7 +4820,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4830,7 +4836,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>95</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4863,7 +4869,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4880,14 +4886,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4896,7 +4902,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4929,7 +4935,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4946,11 +4952,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4962,14 +4968,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4979,11 +4985,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4995,14 +5001,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5012,11 +5018,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5028,14 +5034,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5045,11 +5051,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5061,14 +5067,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5078,11 +5084,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5094,7 +5100,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5111,7 +5117,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5127,7 +5133,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5148,7 +5154,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>17</v>
@@ -5160,14 +5166,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5193,7 +5199,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5210,11 +5216,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5226,7 +5232,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5247,7 +5253,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>17</v>
@@ -5259,7 +5265,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5292,7 +5298,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5313,7 +5319,7 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>17</v>
@@ -5325,14 +5331,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5342,11 +5348,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5354,13 +5360,13 @@
     </row>
     <row r="121" ht="25.5" customHeight="1">
       <c r="P121" s="13">
-        <v>6975.6199999999999</v>
+        <v>7003.3599999999997</v>
       </c>
       <c r="Q121" s="13"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
       <c t="s" r="A122" s="14">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5368,13 +5374,13 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c t="s" r="G122" s="15">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="16"/>
       <c t="s" r="K122" s="17">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -410,6 +410,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -735,6 +744,15 @@
   </si>
   <si>
     <t>0:-1</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>TORSERETIC 10 MG 30 TABS.</t>
@@ -2830,7 +2848,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2847,7 +2865,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2929,7 +2947,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2962,21 +2980,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2988,28 +3006,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3021,14 +3039,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3045,7 +3063,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3061,7 +3079,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3071,14 +3089,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3087,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3104,14 +3122,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3120,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3137,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3153,14 +3171,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3177,7 +3195,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3193,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3210,7 +3228,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3226,7 +3244,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3236,14 +3254,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3252,14 +3270,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3269,14 +3287,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3292,7 +3310,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3302,11 +3320,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3318,7 +3336,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3335,11 +3353,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3351,7 +3369,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3368,11 +3386,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3384,7 +3402,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3401,11 +3419,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3417,14 +3435,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3434,14 +3452,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3450,31 +3468,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3483,31 +3501,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3516,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3533,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3549,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3566,7 +3584,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3589,7 +3607,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3606,7 +3624,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3639,7 +3657,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3655,7 +3673,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3688,7 +3706,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3705,7 +3723,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3721,7 +3739,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3731,14 +3749,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3747,14 +3765,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3764,14 +3782,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3780,7 +3798,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3797,7 +3815,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3826,7 +3844,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3859,18 +3877,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3879,14 +3897,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3896,14 +3914,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3912,14 +3930,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3929,7 +3947,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3952,7 +3970,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3962,11 +3980,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3978,14 +3996,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4018,7 +4036,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4035,7 +4053,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4051,7 +4069,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4061,14 +4079,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4094,14 +4112,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4110,7 +4128,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4127,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4143,14 +4161,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4160,14 +4178,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>241</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4183,7 +4201,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4193,14 +4211,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>244</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4216,7 +4234,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4230,7 +4248,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>24</v>
@@ -4242,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4259,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4275,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4292,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4308,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>223</v>
+        <v>34</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4325,14 +4343,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4341,14 +4359,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4358,14 +4376,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4374,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4391,14 +4409,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,28 +4425,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4440,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4457,14 +4475,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4473,31 +4491,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4506,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4523,14 +4541,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4539,7 +4557,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4552,15 +4570,15 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>174</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4572,31 +4590,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>223</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4605,14 +4623,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4622,11 +4640,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4638,14 +4656,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4655,14 +4673,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4671,14 +4689,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4688,11 +4706,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4704,14 +4722,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4721,14 +4739,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4737,14 +4755,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4754,11 +4772,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4770,14 +4788,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4787,11 +4805,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>17</v>
@@ -4803,7 +4821,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4820,11 +4838,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4836,14 +4854,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4853,14 +4871,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>265</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4869,7 +4887,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4886,14 +4904,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>223</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4902,14 +4920,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4919,14 +4937,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4935,7 +4953,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4952,14 +4970,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4968,14 +4986,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4985,11 +5003,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>272</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5008,7 +5026,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>251</v>
+        <v>34</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5041,7 +5059,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5051,11 +5069,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5067,14 +5085,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5084,11 +5102,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>192</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>193</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5100,14 +5118,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>68</v>
+        <v>257</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5117,14 +5135,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5133,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>34</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5150,14 +5168,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5166,14 +5184,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>68</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5183,14 +5201,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5199,14 +5217,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5216,14 +5234,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>174</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5232,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5249,14 +5267,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5265,14 +5283,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5282,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5298,14 +5316,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5315,11 +5333,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>17</v>
@@ -5331,14 +5349,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5348,49 +5366,115 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>7003.3599999999997</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>319</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>320</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>321</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>322</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>95</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>72</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>80</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>324</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>226</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>72</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>198</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>7120.8000000000002</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>325</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>326</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>327</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5969,10 +6053,20 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -887,10 +887,13 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>زيت حرير 100مل</t>
-  </si>
-  <si>
-    <t>55.00</t>
+    <t xml:space="preserve">زيت فاتيكا زاتون 180مل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -965,12 +968,6 @@
     <t>كريم براشوت</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>مبرد اظافر</t>
   </si>
   <si>
@@ -986,7 +983,10 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:47 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>Sunday, 13 July, 2025 9:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4894,7 +4894,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>271</v>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4970,11 +4970,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>226</v>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5052,14 +5052,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5139,7 +5139,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5151,14 +5151,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5250,14 +5250,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5300,11 +5300,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5349,7 +5349,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>17</v>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5443,38 +5443,71 @@
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>7120.8000000000002</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>324</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>95</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>72</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>195</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7130.8000000000002</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
         <v>325</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
         <v>326</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
         <v>327</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6063,10 +6096,15 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -986,7 +986,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:49 PM</t>
+    <t>Sunday, 13 July, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -305,21 +305,21 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>7:2</t>
+    <t>7:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>23.7600</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -344,6 +344,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
   </si>
   <si>
@@ -560,9 +569,6 @@
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -785,6 +791,12 @@
     <t>5:0</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -899,7 +911,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -948,9 +960,6 @@
   </si>
   <si>
     <t>قصافات كبار</t>
-  </si>
-  <si>
-    <t>10:0</t>
   </si>
   <si>
     <t>قطن 50جم</t>
@@ -2466,10 +2475,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2485,7 +2494,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2499,7 +2508,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>45</v>
@@ -2601,7 +2610,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2617,13 +2626,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2634,7 +2643,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2650,13 +2659,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2667,7 +2676,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2683,7 +2692,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2693,14 +2702,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2782,7 +2791,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2848,7 +2857,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2881,7 +2890,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2898,7 +2907,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2980,7 +2989,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3013,21 +3022,21 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3039,28 +3048,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3096,7 +3105,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3261,7 +3270,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3353,11 +3362,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3369,7 +3378,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3386,11 +3395,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3402,7 +3411,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3419,11 +3428,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3435,7 +3444,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3452,11 +3461,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3468,14 +3477,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,14 +3494,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,31 +3510,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3534,31 +3543,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3584,14 +3593,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3607,7 +3616,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3617,11 +3626,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,7 +3675,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,11 +3725,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3732,14 +3741,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3815,14 +3824,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3848,11 +3857,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3877,15 +3886,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3897,7 +3906,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3910,18 +3919,18 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3937,7 +3946,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3970,7 +3979,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,11 +3989,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3996,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,11 +4022,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,11 +4055,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,14 +4104,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4112,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,7 +4170,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4178,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4201,7 +4210,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4211,14 +4220,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4244,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4260,7 +4269,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4277,11 +4286,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>24</v>
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,11 +4319,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>24</v>
@@ -4333,7 +4342,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4347,10 +4356,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4376,11 +4385,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4399,7 +4408,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,28 +4500,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>24</v>
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4557,31 +4566,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4590,14 +4599,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4616,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,7 +4632,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4636,15 +4645,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>177</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4656,31 +4665,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>221</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>226</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4689,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4706,11 +4715,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4729,7 +4738,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,14 +4748,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4795,7 +4804,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4838,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4854,14 +4863,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4871,11 +4880,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>17</v>
@@ -4887,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4904,11 +4913,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>73</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4937,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>271</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4986,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>174</v>
+        <v>269</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,7 +5052,7 @@
         <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5059,7 +5068,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5069,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>177</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>278</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5085,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5102,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5118,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5135,11 +5144,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5151,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5168,11 +5177,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>196</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5191,7 +5200,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5201,14 +5210,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,14 +5226,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5234,14 +5243,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>317</v>
+        <v>68</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5267,14 +5276,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5290,7 +5299,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5300,14 +5309,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>293</v>
+        <v>177</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>294</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5323,7 +5332,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5333,14 +5342,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5366,11 +5375,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5399,11 +5408,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>17</v>
@@ -5422,7 +5431,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5432,11 +5441,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5465,49 +5474,115 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7130.8000000000002</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>325</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>326</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>228</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>72</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>200</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>223</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
         <v>327</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>95</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>72</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>197</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7189.1800000000003</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>328</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>329</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>330</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6101,10 +6176,20 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>228.00</t>
   </si>
   <si>
-    <t>114.0000</t>
+    <t>228.0000</t>
   </si>
   <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
@@ -437,6 +437,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -788,108 +800,108 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VONASPIRE 10MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8554:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>39.9300</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>43:0</t>
+  </si>
+  <si>
+    <t>بيبرونه ALGO كبيره</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VONASPIRE 10MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8554:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
-  </si>
-  <si>
-    <t>121.00</t>
-  </si>
-  <si>
-    <t>39.9300</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الو ايفا200مل </t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>43:0</t>
-  </si>
-  <si>
-    <t>بيبرونه ALGO كبيره</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
     <t>جيل فاتيكا برطمان اخضر</t>
   </si>
   <si>
@@ -944,6 +956,12 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
     <t>فرشه شعر اطفال الجو</t>
   </si>
   <si>
@@ -995,7 +1013,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 9:58 PM</t>
+    <t>Sunday, 13 July, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1852,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1851,7 +1869,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2956,7 +2974,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2973,7 +2991,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2982,7 +3000,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2999,11 +3017,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -3015,14 +3033,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3032,11 +3050,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3048,28 +3066,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3081,24 +3099,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3121,7 +3139,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3253,7 +3271,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3362,14 +3380,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3395,11 +3413,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3411,7 +3429,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3444,7 +3462,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3461,11 +3479,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3477,7 +3495,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3494,11 +3512,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3510,14 +3528,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3550,24 +3568,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3576,31 +3594,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3616,7 +3634,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,14 +3644,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3642,14 +3660,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,11 +3677,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3675,14 +3693,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3692,14 +3710,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,7 +3726,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,11 +3776,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,14 +3809,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3824,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3873,7 +3891,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3906,7 +3924,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3919,15 +3937,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3939,7 +3957,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3952,18 +3970,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,11 +4040,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4078,7 +4096,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4088,11 +4106,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4104,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,14 +4139,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4161,7 +4179,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4177,7 +4195,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4203,7 +4221,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4220,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>53</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4236,14 +4254,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4271,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>246</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4302,7 +4320,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4319,11 +4337,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>24</v>
@@ -4335,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>24</v>
@@ -4368,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4403,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>34</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,11 +4436,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4434,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>228</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4540,7 +4558,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4566,20 +4584,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4590,7 +4608,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4606,24 +4624,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4682,14 +4700,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4698,7 +4716,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4711,18 +4729,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4748,14 +4766,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4764,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4781,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4797,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4814,11 +4832,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4830,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,11 +4865,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>178</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4863,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,14 +4898,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4896,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,14 +4947,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4950,10 +4968,10 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>73</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5012,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5028,7 +5046,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5045,14 +5063,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>228</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5061,14 +5079,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>177</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>178</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,11 +5129,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5127,14 +5145,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5148,7 +5166,7 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5160,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,11 +5195,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5193,14 +5211,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5226,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5259,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,14 +5294,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>180</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5292,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>34</v>
+        <v>304</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,14 +5327,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5325,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,14 +5360,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5358,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5375,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5391,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>68</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5408,14 +5426,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5424,14 +5442,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5441,11 +5459,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5457,14 +5475,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5474,11 +5492,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>325</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>17</v>
@@ -5490,14 +5508,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5507,11 +5525,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5523,7 +5541,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5540,49 +5558,115 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>198</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7189.1800000000003</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>328</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>329</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
-        <v>330</v>
-      </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>332</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>232</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>72</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>204</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>333</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>95</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>72</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>201</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7465.1800000000003</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>334</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>335</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>336</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6186,10 +6270,20 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -296,585 +296,588 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>31.9200</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>55.4400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY DIGEST MILK 400 GM</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>349.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>52.5000</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>145.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG 10 TAB.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>103.7400</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>NERFACTORY TAB</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
+    <t>ONE ALPHA 1 MCG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>ORAMAX MOUTH SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
+    <t>OST-MAP 60MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PENDULINE KIDS SHAMPOO 450ML</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PERIOCARE MOUTH WASH</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>162.0000</t>
+  </si>
+  <si>
+    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>SOFENACIN 5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 10 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>TRITOSPOT CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>VONASPIRE 10MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8554:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>39.9300</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>DOXIPROCT PLUS RECTAL OINT. 30 GM</t>
-  </si>
-  <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>26.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>31.9200</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>55.4400</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>349.00</t>
-  </si>
-  <si>
-    <t>349.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>173.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>IMIPRAMINE 25MG 50 TAB.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>52.50</t>
-  </si>
-  <si>
-    <t>52.5000</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>134.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LEE-FLOX 750MG 7 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>145.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG 10 TAB.</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>103.7400</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>NERFACTORY TAB</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OCTOZINC 25MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>95.0400</t>
-  </si>
-  <si>
-    <t>ONE ALPHA 1 MCG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>ORAMAX MOUTH SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>59.50</t>
-  </si>
-  <si>
-    <t>59.5000</t>
-  </si>
-  <si>
-    <t>OST-MAP 60MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PEPZOL 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PERIOCARE MOUTH WASH</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>162.0000</t>
-  </si>
-  <si>
-    <t>PROPAMETHONE TOP. CREAM. 20 GM</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 120 MG 7 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>88.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>SOFENACIN 5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>46.5300</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>TAMSULIN 0.4MG 28 CAPS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 10 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>TRITOSPOT CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>VONASPIRE 10MG 14 F.C. TAB</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8554:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
-  </si>
-  <si>
-    <t>121.00</t>
-  </si>
-  <si>
-    <t>39.9300</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الو ايفا200مل </t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
     <t>10.00</t>
   </si>
   <si>
@@ -950,9 +953,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -1013,7 +1013,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 10:18 PM</t>
+    <t>Sunday, 13 July, 2025 10:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2463,7 +2463,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3842,11 +3842,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3970,15 +3970,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4003,18 +4003,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4030,7 +4030,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4063,7 +4063,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4089,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,11 +4106,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4122,14 +4122,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4155,14 +4155,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,14 +4172,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4188,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4238,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4271,14 +4271,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4304,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,14 +4320,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,14 +4337,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4370,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>24</v>
@@ -4386,14 +4386,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>24</v>
@@ -4419,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4436,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,14 +4485,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4518,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>232</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4551,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>35</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4584,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>271</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4601,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,31 +4617,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,31 +4650,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,11 +4700,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4733,14 +4733,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>18</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4762,18 +4762,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>184</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>170</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4815,14 +4815,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,14 +4832,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4848,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,11 +4865,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4881,14 +4881,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>34</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,11 +4898,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4914,14 +4914,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4931,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,14 +4964,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4987,7 +4987,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5001,10 +5001,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5030,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>73</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,14 +5046,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5063,14 +5063,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>304</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5096,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>232</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5129,14 +5129,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>182</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5152,7 +5152,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5162,11 +5162,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>181</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5178,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>34</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5195,11 +5195,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5228,11 +5228,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>132</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5244,14 +5244,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5261,11 +5261,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>319</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5277,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5294,11 +5294,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5310,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5327,11 +5327,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5343,14 +5343,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>68</v>
+        <v>305</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5360,14 +5360,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5376,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5393,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>181</v>
+        <v>289</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,14 +5409,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>34</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5430,10 +5430,10 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,14 +5442,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5459,11 +5459,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5475,14 +5475,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5492,14 +5492,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,14 +5508,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5525,14 +5525,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5541,14 +5541,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5562,10 +5562,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>331</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5574,14 +5574,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5591,14 +5591,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>227</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5607,14 +5607,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>95</v>
+        <v>232</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5624,49 +5624,82 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>333</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>288</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>72</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>201</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
         <v>202</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>7465.1800000000003</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7657.1800000000003</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
         <v>334</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
         <v>335</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
         <v>336</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6280,10 +6313,15 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -74,81 +74,93 @@
     <t>AMIPRIDE 50MG 30 TAB</t>
   </si>
   <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>73.2600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>ANTINAL 200MG 24 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ANTINAL 200MG 24 CAPSULES</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>AVAZIR 0.3% EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
     <t>154.50</t>
   </si>
   <si>
     <t>101.9700</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -242,12 +254,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>CETAL 500MG 20 TAB</t>
   </si>
   <si>
@@ -476,6 +482,15 @@
     <t>173.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -707,9 +722,6 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>42.00</t>
   </si>
   <si>
@@ -824,13 +836,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8554:0</t>
+    <t>8553:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">WELLWOMAN ORIGINAL  60 TAB</t>
@@ -1013,7 +1025,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 10:20 PM</t>
+    <t>Sunday, 13 July, 2025 10:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1720,7 +1732,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1730,14 +1742,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>22</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>23</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1796,14 +1808,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1833,10 +1845,10 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1845,14 +1857,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1862,11 +1874,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1895,14 +1907,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1928,14 +1940,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1951,7 +1963,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1961,14 +1973,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2027,14 +2039,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2126,14 +2138,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2175,14 +2187,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2199,7 +2211,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2215,13 +2227,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2232,7 +2244,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2248,13 +2260,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2281,7 +2293,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2291,14 +2303,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2324,14 +2336,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2357,14 +2369,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2373,31 +2385,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2406,31 +2418,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2439,14 +2451,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2456,14 +2468,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2501,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2505,7 +2517,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2545,7 +2557,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2633,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2670,31 +2682,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2703,31 +2715,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,14 +2765,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2769,14 +2781,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,14 +2798,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2802,14 +2814,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2819,14 +2831,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2835,14 +2847,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2864,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2868,7 +2880,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2885,14 +2897,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,14 +2913,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2918,14 +2930,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2963,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,14 +2979,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3050,11 +3062,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3083,11 +3095,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3099,24 +3111,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3139,7 +3151,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3149,11 +3161,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3165,31 +3177,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,7 +3227,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3238,7 +3250,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,11 +3260,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>17</v>
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3293,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3380,14 +3392,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3403,7 +3415,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3436,7 +3448,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,14 +3458,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3469,7 +3481,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3479,11 +3491,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3495,14 +3507,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3512,11 +3524,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3545,11 +3557,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3561,14 +3573,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,14 +3590,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3594,31 +3606,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3634,7 +3646,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3667,24 +3679,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3705,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3717,7 +3729,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3733,7 +3745,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,14 +3755,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,7 +3844,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3849,7 +3861,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,7 +3877,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3875,14 +3887,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3924,14 +3936,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3964,7 +3976,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,11 +3986,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3990,28 +4002,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4063,21 +4075,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,14 +4118,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4122,14 +4134,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,7 +4151,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4162,7 +4174,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4172,11 +4184,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4205,14 +4217,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4353,14 +4365,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4370,14 +4382,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4386,14 +4398,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4419,14 +4431,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,14 +4448,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,14 +4481,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4525,7 +4537,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4547,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>232</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4591,7 +4603,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>101</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>39</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4650,31 +4662,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4716,31 +4728,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4782,7 +4794,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4795,15 +4807,15 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>184</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4815,31 +4827,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>232</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4855,21 +4867,21 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4881,31 +4893,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4927,15 +4939,15 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4954,24 +4966,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4987,21 +4999,21 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5013,28 +5025,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>17</v>
@@ -5046,28 +5058,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5079,31 +5091,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>202</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>305</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5112,31 +5124,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,31 +5157,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5185,13 +5197,13 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5202,7 +5214,7 @@
         <v>312</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5218,21 +5230,21 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>314</v>
+        <v>186</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>285</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5244,28 +5256,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5284,13 +5296,13 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5298,7 +5310,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5310,28 +5322,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5343,28 +5355,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5376,31 +5388,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>68</v>
+        <v>301</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,31 +5421,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,31 +5454,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5475,31 +5487,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,31 +5520,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5541,28 +5553,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5574,28 +5586,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>17</v>
@@ -5607,28 +5619,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>229</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5640,66 +5652,132 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7657.1800000000003</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>334</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>335</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>336</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>25</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>76</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>209</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>337</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>292</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>76</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>206</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7818.8100000000004</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>338</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>339</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>340</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6318,10 +6396,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -1025,7 +1025,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 10:25 PM</t>
+    <t>Sunday, 13 July, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-13_00-00.xlsx
+++ b/DaySale_2025-07-13_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -698,12 +707,6 @@
     <t>PERIOCARE MOUTH WASH</t>
   </si>
   <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -938,63 +941,69 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سهايه الجو</t>
+  </si>
+  <si>
+    <t>شامبو+بلسم دوف عرض</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>225.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>فرشه شعر اطفال الجو</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>قصافات اطفال</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
     <t>10:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>سهايه الجو</t>
-  </si>
-  <si>
-    <t>شامبو+بلسم دوف عرض</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>225.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>فرشه شعر اطفال الجو</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>قصافات اطفال</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1025,7 +1034,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Sunday, 13 July, 2025 10:37 PM</t>
+    <t>Sunday, 13 July, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2953,7 +2962,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2970,7 +2979,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3003,7 +3012,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3019,7 +3028,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3036,7 +3045,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>150</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3151,7 +3160,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3190,15 +3199,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3210,28 +3219,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3243,14 +3252,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3267,7 +3276,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3293,14 +3302,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3309,14 +3318,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>30</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3399,7 +3408,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3415,7 +3424,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3432,7 +3441,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3448,7 +3457,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3514,7 +3523,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3524,11 +3533,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3540,7 +3549,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3557,11 +3566,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3573,7 +3582,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3590,11 +3599,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O65" s="